--- a/data/trans_orig/IQ23_R2-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IQ23_R2-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{74ADDC10-CCBD-488C-BEFD-15B5BB49C24D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF3D88C7-8B27-4071-8C83-29FDE7C13C2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CCAE3E33-2E60-43B9-B8A8-D51F8A4C2349}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2E511FED-9003-411A-AEE0-C3DBE4D15F66}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="521">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="511">
   <si>
     <t>Menores en función de si duermen menos/más/igual de las horas recomendadas en función de su edad en 2007 (Tasa respuesta: 99,33%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>4,95%</t>
   </si>
   <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
   </si>
   <si>
     <t>5,86%</t>
   </si>
   <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
   </si>
   <si>
     <t>5,37%</t>
   </si>
   <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
   </si>
   <si>
     <t>Menos</t>
@@ -107,28 +107,28 @@
     <t>45,01%</t>
   </si>
   <si>
-    <t>37,72%</t>
-  </si>
-  <si>
-    <t>52,55%</t>
+    <t>37,78%</t>
+  </si>
+  <si>
+    <t>52,9%</t>
   </si>
   <si>
     <t>41,68%</t>
   </si>
   <si>
-    <t>34,23%</t>
-  </si>
-  <si>
-    <t>50,23%</t>
+    <t>34,04%</t>
+  </si>
+  <si>
+    <t>48,86%</t>
   </si>
   <si>
     <t>43,45%</t>
   </si>
   <si>
-    <t>38,4%</t>
-  </si>
-  <si>
-    <t>48,55%</t>
+    <t>38,39%</t>
+  </si>
+  <si>
+    <t>49,24%</t>
   </si>
   <si>
     <t>Sí</t>
@@ -137,28 +137,28 @@
     <t>50,04%</t>
   </si>
   <si>
-    <t>42,58%</t>
-  </si>
-  <si>
-    <t>57,54%</t>
+    <t>42,07%</t>
+  </si>
+  <si>
+    <t>57,35%</t>
   </si>
   <si>
     <t>52,46%</t>
   </si>
   <si>
-    <t>44,4%</t>
-  </si>
-  <si>
-    <t>59,92%</t>
+    <t>45,26%</t>
+  </si>
+  <si>
+    <t>60,63%</t>
   </si>
   <si>
     <t>51,17%</t>
   </si>
   <si>
-    <t>46,1%</t>
-  </si>
-  <si>
-    <t>56,66%</t>
+    <t>45,8%</t>
+  </si>
+  <si>
+    <t>56,06%</t>
   </si>
   <si>
     <t>100%</t>
@@ -170,1438 +170,1408 @@
     <t>1,3%</t>
   </si>
   <si>
-    <t>0,44%</t>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>26,98%</t>
+  </si>
+  <si>
+    <t>21,42%</t>
+  </si>
+  <si>
+    <t>18,54%</t>
+  </si>
+  <si>
+    <t>24,33%</t>
+  </si>
+  <si>
+    <t>78,54%</t>
+  </si>
+  <si>
+    <t>74,49%</t>
+  </si>
+  <si>
+    <t>82,34%</t>
+  </si>
+  <si>
+    <t>75,7%</t>
+  </si>
+  <si>
+    <t>71,11%</t>
+  </si>
+  <si>
+    <t>79,9%</t>
+  </si>
+  <si>
+    <t>77,12%</t>
+  </si>
+  <si>
+    <t>73,91%</t>
+  </si>
+  <si>
+    <t>79,87%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>24,94%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>31,3%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>25,73%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>27,19%</t>
+  </si>
+  <si>
+    <t>73,75%</t>
+  </si>
+  <si>
+    <t>67,19%</t>
+  </si>
+  <si>
+    <t>79,37%</t>
+  </si>
+  <si>
+    <t>78,67%</t>
+  </si>
+  <si>
+    <t>72,9%</t>
+  </si>
+  <si>
+    <t>84,07%</t>
+  </si>
+  <si>
+    <t>76,06%</t>
+  </si>
+  <si>
+    <t>71,41%</t>
+  </si>
+  <si>
+    <t>79,92%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>20,84%</t>
+  </si>
+  <si>
+    <t>19,67%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>82,57%</t>
+  </si>
+  <si>
+    <t>77,54%</t>
+  </si>
+  <si>
+    <t>86,24%</t>
+  </si>
+  <si>
+    <t>79,31%</t>
+  </si>
+  <si>
+    <t>73,89%</t>
+  </si>
+  <si>
+    <t>83,73%</t>
+  </si>
+  <si>
+    <t>80,99%</t>
+  </si>
+  <si>
+    <t>77,91%</t>
+  </si>
+  <si>
+    <t>84,21%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>26,79%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>26,86%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>26,3%</t>
+  </si>
+  <si>
+    <t>73,99%</t>
+  </si>
+  <si>
+    <t>71,32%</t>
+  </si>
+  <si>
+    <t>76,6%</t>
+  </si>
+  <si>
+    <t>73,64%</t>
+  </si>
+  <si>
+    <t>71,04%</t>
+  </si>
+  <si>
+    <t>76,25%</t>
+  </si>
+  <si>
+    <t>73,82%</t>
+  </si>
+  <si>
+    <t>71,78%</t>
+  </si>
+  <si>
+    <t>75,58%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores en función de si duermen menos/más/igual de las horas recomendadas en función de su edad en 2012 (Tasa respuesta: 99,81%)</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>41,35%</t>
+  </si>
+  <si>
+    <t>33,83%</t>
+  </si>
+  <si>
+    <t>48,39%</t>
+  </si>
+  <si>
+    <t>45,47%</t>
+  </si>
+  <si>
+    <t>37,99%</t>
+  </si>
+  <si>
+    <t>50,97%</t>
+  </si>
+  <si>
+    <t>43,42%</t>
+  </si>
+  <si>
+    <t>39,12%</t>
+  </si>
+  <si>
+    <t>48,69%</t>
+  </si>
+  <si>
+    <t>50,14%</t>
+  </si>
+  <si>
+    <t>43,02%</t>
+  </si>
+  <si>
+    <t>57,0%</t>
+  </si>
+  <si>
+    <t>48,31%</t>
+  </si>
+  <si>
+    <t>42,34%</t>
+  </si>
+  <si>
+    <t>55,34%</t>
+  </si>
+  <si>
+    <t>49,22%</t>
+  </si>
+  <si>
+    <t>44,59%</t>
+  </si>
+  <si>
+    <t>54,02%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>25,48%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>30,01%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>28,72%</t>
+  </si>
+  <si>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>28,21%</t>
+  </si>
+  <si>
+    <t>73,29%</t>
+  </si>
+  <si>
+    <t>68,48%</t>
+  </si>
+  <si>
+    <t>77,24%</t>
+  </si>
+  <si>
+    <t>74,25%</t>
+  </si>
+  <si>
+    <t>69,39%</t>
+  </si>
+  <si>
+    <t>78,84%</t>
+  </si>
+  <si>
+    <t>73,74%</t>
+  </si>
+  <si>
+    <t>70,35%</t>
+  </si>
+  <si>
+    <t>76,76%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>29,14%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>25,66%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>26,11%</t>
+  </si>
+  <si>
+    <t>74,55%</t>
+  </si>
+  <si>
+    <t>68,71%</t>
+  </si>
+  <si>
+    <t>79,71%</t>
+  </si>
+  <si>
+    <t>78,73%</t>
+  </si>
+  <si>
+    <t>73,16%</t>
+  </si>
+  <si>
+    <t>83,63%</t>
+  </si>
+  <si>
+    <t>76,62%</t>
+  </si>
+  <si>
+    <t>72,23%</t>
+  </si>
+  <si>
+    <t>80,17%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>83,51%</t>
+  </si>
+  <si>
+    <t>78,66%</t>
+  </si>
+  <si>
+    <t>87,52%</t>
+  </si>
+  <si>
+    <t>82,94%</t>
+  </si>
+  <si>
+    <t>77,73%</t>
+  </si>
+  <si>
+    <t>87,11%</t>
+  </si>
+  <si>
+    <t>83,23%</t>
+  </si>
+  <si>
+    <t>79,77%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>27,4%</t>
+  </si>
+  <si>
+    <t>71,52%</t>
+  </si>
+  <si>
+    <t>69,06%</t>
+  </si>
+  <si>
+    <t>74,3%</t>
+  </si>
+  <si>
+    <t>71,97%</t>
+  </si>
+  <si>
+    <t>69,46%</t>
+  </si>
+  <si>
+    <t>74,59%</t>
+  </si>
+  <si>
+    <t>71,74%</t>
+  </si>
+  <si>
+    <t>69,89%</t>
+  </si>
+  <si>
+    <t>73,7%</t>
+  </si>
+  <si>
+    <t>Menores en función de si duermen menos/más/igual de las horas recomendadas en función de su edad en 2016 (Tasa respuesta: 99,11%)</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>51,28%</t>
+  </si>
+  <si>
+    <t>43,72%</t>
+  </si>
+  <si>
+    <t>58,54%</t>
+  </si>
+  <si>
+    <t>47,1%</t>
+  </si>
+  <si>
+    <t>40,62%</t>
+  </si>
+  <si>
+    <t>53,52%</t>
+  </si>
+  <si>
+    <t>49,14%</t>
+  </si>
+  <si>
+    <t>44,16%</t>
+  </si>
+  <si>
+    <t>54,06%</t>
+  </si>
+  <si>
+    <t>45,64%</t>
+  </si>
+  <si>
+    <t>38,16%</t>
+  </si>
+  <si>
+    <t>53,24%</t>
+  </si>
+  <si>
+    <t>48,4%</t>
+  </si>
+  <si>
+    <t>41,67%</t>
+  </si>
+  <si>
+    <t>54,79%</t>
+  </si>
+  <si>
+    <t>47,05%</t>
+  </si>
+  <si>
+    <t>42,03%</t>
+  </si>
+  <si>
+    <t>52,1%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
   </si>
   <si>
     <t>2,84%</t>
   </si>
   <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
+    <t>37,59%</t>
+  </si>
+  <si>
+    <t>32,85%</t>
+  </si>
+  <si>
+    <t>42,92%</t>
+  </si>
+  <si>
+    <t>31,0%</t>
+  </si>
+  <si>
+    <t>26,28%</t>
+  </si>
+  <si>
+    <t>36,24%</t>
+  </si>
+  <si>
+    <t>34,65%</t>
+  </si>
+  <si>
+    <t>31,64%</t>
+  </si>
+  <si>
+    <t>38,59%</t>
+  </si>
+  <si>
+    <t>61,06%</t>
+  </si>
+  <si>
+    <t>55,31%</t>
+  </si>
+  <si>
+    <t>65,64%</t>
+  </si>
+  <si>
+    <t>67,32%</t>
+  </si>
+  <si>
+    <t>62,03%</t>
+  </si>
+  <si>
+    <t>72,14%</t>
+  </si>
+  <si>
+    <t>63,86%</t>
+  </si>
+  <si>
+    <t>60,16%</t>
+  </si>
+  <si>
+    <t>67,12%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>30,1%</t>
+  </si>
+  <si>
+    <t>26,39%</t>
+  </si>
+  <si>
+    <t>31,79%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>29,12%</t>
+  </si>
+  <si>
+    <t>68,45%</t>
+  </si>
+  <si>
+    <t>79,24%</t>
+  </si>
+  <si>
+    <t>72,39%</t>
+  </si>
+  <si>
+    <t>66,6%</t>
+  </si>
+  <si>
+    <t>77,25%</t>
+  </si>
+  <si>
+    <t>73,13%</t>
+  </si>
+  <si>
+    <t>69,24%</t>
+  </si>
+  <si>
+    <t>76,49%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>83,71%</t>
+  </si>
+  <si>
+    <t>78,64%</t>
+  </si>
+  <si>
+    <t>88,12%</t>
+  </si>
+  <si>
+    <t>81,66%</t>
+  </si>
+  <si>
+    <t>76,89%</t>
+  </si>
+  <si>
+    <t>86,22%</t>
+  </si>
+  <si>
+    <t>82,68%</t>
+  </si>
+  <si>
+    <t>86,11%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>31,51%</t>
+  </si>
+  <si>
+    <t>28,61%</t>
+  </si>
+  <si>
+    <t>34,41%</t>
+  </si>
+  <si>
+    <t>29,53%</t>
+  </si>
+  <si>
+    <t>32,18%</t>
+  </si>
+  <si>
+    <t>30,55%</t>
+  </si>
+  <si>
+    <t>28,68%</t>
+  </si>
+  <si>
+    <t>32,6%</t>
+  </si>
+  <si>
+    <t>66,95%</t>
+  </si>
+  <si>
+    <t>63,94%</t>
+  </si>
+  <si>
+    <t>69,82%</t>
+  </si>
+  <si>
+    <t>68,73%</t>
+  </si>
+  <si>
+    <t>66,01%</t>
+  </si>
+  <si>
+    <t>71,68%</t>
+  </si>
+  <si>
+    <t>67,82%</t>
+  </si>
+  <si>
+    <t>65,6%</t>
+  </si>
+  <si>
+    <t>69,63%</t>
+  </si>
+  <si>
+    <t>Menores en función de si duermen menos/más/igual de las horas recomendadas en función de su edad en 2023 (Tasa respuesta: 99,43%)</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>68,18%</t>
+  </si>
+  <si>
+    <t>58,96%</t>
+  </si>
+  <si>
+    <t>76,46%</t>
+  </si>
+  <si>
+    <t>74,7%</t>
+  </si>
+  <si>
+    <t>65,73%</t>
+  </si>
+  <si>
+    <t>71,4%</t>
+  </si>
+  <si>
+    <t>65,02%</t>
+  </si>
+  <si>
+    <t>77,14%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>37,83%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>32,96%</t>
+  </si>
+  <si>
+    <t>25,99%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>32,5%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>34,82%</t>
+  </si>
+  <si>
+    <t>28,9%</t>
+  </si>
+  <si>
+    <t>40,6%</t>
+  </si>
+  <si>
+    <t>34,86%</t>
+  </si>
+  <si>
+    <t>40,78%</t>
+  </si>
+  <si>
+    <t>34,84%</t>
+  </si>
+  <si>
+    <t>31,05%</t>
+  </si>
+  <si>
+    <t>39,83%</t>
+  </si>
+  <si>
+    <t>65,18%</t>
+  </si>
+  <si>
+    <t>59,4%</t>
+  </si>
+  <si>
+    <t>71,1%</t>
+  </si>
+  <si>
+    <t>64,08%</t>
+  </si>
+  <si>
+    <t>58,07%</t>
+  </si>
+  <si>
+    <t>70,38%</t>
+  </si>
+  <si>
+    <t>64,66%</t>
+  </si>
+  <si>
+    <t>59,59%</t>
   </si>
   <si>
     <t>0,79%</t>
   </si>
   <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>27,04%</t>
-  </si>
-  <si>
-    <t>21,42%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>24,45%</t>
-  </si>
-  <si>
-    <t>78,54%</t>
-  </si>
-  <si>
-    <t>74,42%</t>
-  </si>
-  <si>
-    <t>82,45%</t>
-  </si>
-  <si>
-    <t>75,7%</t>
-  </si>
-  <si>
-    <t>70,94%</t>
-  </si>
-  <si>
-    <t>79,71%</t>
-  </si>
-  <si>
-    <t>77,12%</t>
-  </si>
-  <si>
-    <t>74,01%</t>
-  </si>
-  <si>
-    <t>80,17%</t>
-  </si>
-  <si>
-    <t>8-11</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>24,94%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>30,9%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>25,5%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>73,75%</t>
-  </si>
-  <si>
-    <t>67,53%</t>
-  </si>
-  <si>
-    <t>79,67%</t>
-  </si>
-  <si>
-    <t>78,67%</t>
-  </si>
-  <si>
-    <t>72,49%</t>
-  </si>
-  <si>
-    <t>84,6%</t>
-  </si>
-  <si>
-    <t>76,06%</t>
-  </si>
-  <si>
-    <t>71,87%</t>
-  </si>
-  <si>
-    <t>80,38%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>24,33%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>82,57%</t>
-  </si>
-  <si>
-    <t>78,0%</t>
-  </si>
-  <si>
-    <t>86,53%</t>
-  </si>
-  <si>
-    <t>79,31%</t>
-  </si>
-  <si>
-    <t>74,8%</t>
-  </si>
-  <si>
-    <t>83,78%</t>
-  </si>
-  <si>
-    <t>80,99%</t>
-  </si>
-  <si>
-    <t>77,37%</t>
-  </si>
-  <si>
-    <t>83,95%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>21,92%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>25,97%</t>
-  </si>
-  <si>
-    <t>73,99%</t>
-  </si>
-  <si>
-    <t>71,17%</t>
-  </si>
-  <si>
-    <t>76,53%</t>
-  </si>
-  <si>
-    <t>73,64%</t>
-  </si>
-  <si>
-    <t>70,79%</t>
-  </si>
-  <si>
-    <t>76,09%</t>
-  </si>
-  <si>
-    <t>73,82%</t>
-  </si>
-  <si>
-    <t>71,91%</t>
-  </si>
-  <si>
-    <t>75,93%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores en función de si duermen menos/más/igual de las horas recomendadas en función de su edad en 2012 (Tasa respuesta: 99,81%)</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>29,55%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>35,92%</t>
+  </si>
+  <si>
+    <t>21,6%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>28,09%</t>
+  </si>
+  <si>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>30,22%</t>
+  </si>
+  <si>
+    <t>70,45%</t>
+  </si>
+  <si>
+    <t>75,91%</t>
+  </si>
+  <si>
+    <t>76,91%</t>
+  </si>
+  <si>
+    <t>70,56%</t>
+  </si>
+  <si>
+    <t>81,91%</t>
+  </si>
+  <si>
+    <t>73,47%</t>
+  </si>
+  <si>
+    <t>69,1%</t>
+  </si>
+  <si>
+    <t>77,67%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
   </si>
   <si>
     <t>3,52%</t>
   </si>
   <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>41,35%</t>
-  </si>
-  <si>
-    <t>35,07%</t>
-  </si>
-  <si>
-    <t>47,64%</t>
-  </si>
-  <si>
-    <t>45,47%</t>
-  </si>
-  <si>
-    <t>39,22%</t>
-  </si>
-  <si>
-    <t>52,44%</t>
-  </si>
-  <si>
-    <t>43,42%</t>
-  </si>
-  <si>
-    <t>38,77%</t>
-  </si>
-  <si>
-    <t>48,59%</t>
-  </si>
-  <si>
-    <t>50,14%</t>
-  </si>
-  <si>
-    <t>43,81%</t>
-  </si>
-  <si>
-    <t>57,19%</t>
-  </si>
-  <si>
-    <t>48,31%</t>
-  </si>
-  <si>
-    <t>41,85%</t>
-  </si>
-  <si>
-    <t>54,93%</t>
-  </si>
-  <si>
-    <t>49,22%</t>
-  </si>
-  <si>
-    <t>43,99%</t>
-  </si>
-  <si>
-    <t>54,05%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>81,16%</t>
+  </si>
+  <si>
+    <t>75,9%</t>
+  </si>
+  <si>
+    <t>85,67%</t>
+  </si>
+  <si>
+    <t>76,31%</t>
+  </si>
+  <si>
+    <t>85,07%</t>
+  </si>
+  <si>
+    <t>81,08%</t>
+  </si>
+  <si>
+    <t>77,7%</t>
+  </si>
+  <si>
+    <t>84,32%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
   </si>
   <si>
     <t>0,76%</t>
   </si>
   <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>25,48%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>29,87%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>28,88%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>73,29%</t>
-  </si>
-  <si>
-    <t>68,9%</t>
-  </si>
-  <si>
-    <t>77,55%</t>
-  </si>
-  <si>
-    <t>74,25%</t>
-  </si>
-  <si>
-    <t>69,16%</t>
-  </si>
-  <si>
-    <t>78,76%</t>
-  </si>
-  <si>
-    <t>73,74%</t>
-  </si>
-  <si>
-    <t>70,38%</t>
-  </si>
-  <si>
-    <t>76,8%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>28,63%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>25,35%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>74,55%</t>
-  </si>
-  <si>
-    <t>69,02%</t>
-  </si>
-  <si>
-    <t>80,06%</t>
-  </si>
-  <si>
-    <t>78,73%</t>
-  </si>
-  <si>
-    <t>73,02%</t>
-  </si>
-  <si>
-    <t>83,98%</t>
-  </si>
-  <si>
-    <t>76,62%</t>
-  </si>
-  <si>
-    <t>72,66%</t>
-  </si>
-  <si>
-    <t>80,69%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>83,51%</t>
-  </si>
-  <si>
-    <t>78,1%</t>
-  </si>
-  <si>
-    <t>87,96%</t>
-  </si>
-  <si>
-    <t>82,94%</t>
-  </si>
-  <si>
-    <t>77,44%</t>
-  </si>
-  <si>
-    <t>87,0%</t>
-  </si>
-  <si>
-    <t>83,23%</t>
-  </si>
-  <si>
-    <t>79,77%</t>
-  </si>
-  <si>
-    <t>86,13%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>25,57%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>28,32%</t>
-  </si>
-  <si>
-    <t>25,58%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>27,35%</t>
-  </si>
-  <si>
-    <t>71,52%</t>
-  </si>
-  <si>
-    <t>69,01%</t>
-  </si>
-  <si>
-    <t>74,33%</t>
-  </si>
-  <si>
-    <t>71,97%</t>
-  </si>
-  <si>
-    <t>69,24%</t>
-  </si>
-  <si>
-    <t>74,71%</t>
-  </si>
-  <si>
-    <t>71,74%</t>
-  </si>
-  <si>
-    <t>69,99%</t>
-  </si>
-  <si>
-    <t>73,72%</t>
-  </si>
-  <si>
-    <t>Menores en función de si duermen menos/más/igual de las horas recomendadas en función de su edad en 2015 (Tasa respuesta: 99,11%)</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>51,28%</t>
-  </si>
-  <si>
-    <t>43,76%</t>
-  </si>
-  <si>
-    <t>58,63%</t>
-  </si>
-  <si>
-    <t>47,1%</t>
-  </si>
-  <si>
-    <t>39,87%</t>
-  </si>
-  <si>
-    <t>53,89%</t>
-  </si>
-  <si>
-    <t>49,14%</t>
-  </si>
-  <si>
-    <t>44,03%</t>
-  </si>
-  <si>
-    <t>53,92%</t>
-  </si>
-  <si>
-    <t>45,64%</t>
-  </si>
-  <si>
-    <t>38,26%</t>
-  </si>
-  <si>
-    <t>53,47%</t>
-  </si>
-  <si>
-    <t>48,4%</t>
-  </si>
-  <si>
-    <t>42,27%</t>
-  </si>
-  <si>
-    <t>55,89%</t>
-  </si>
-  <si>
-    <t>47,05%</t>
-  </si>
-  <si>
-    <t>42,33%</t>
-  </si>
-  <si>
-    <t>52,26%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>37,59%</t>
-  </si>
-  <si>
-    <t>33,07%</t>
-  </si>
-  <si>
-    <t>42,55%</t>
-  </si>
-  <si>
-    <t>31,0%</t>
-  </si>
-  <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>36,18%</t>
-  </si>
-  <si>
-    <t>34,65%</t>
-  </si>
-  <si>
-    <t>31,32%</t>
-  </si>
-  <si>
-    <t>38,25%</t>
-  </si>
-  <si>
-    <t>61,06%</t>
-  </si>
-  <si>
-    <t>56,28%</t>
-  </si>
-  <si>
-    <t>65,86%</t>
-  </si>
-  <si>
-    <t>67,32%</t>
-  </si>
-  <si>
-    <t>62,11%</t>
-  </si>
-  <si>
-    <t>72,36%</t>
-  </si>
-  <si>
-    <t>63,86%</t>
-  </si>
-  <si>
-    <t>60,3%</t>
-  </si>
-  <si>
-    <t>67,4%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>29,86%</t>
-  </si>
-  <si>
-    <t>26,39%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>31,69%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>29,23%</t>
-  </si>
-  <si>
-    <t>73,89%</t>
-  </si>
-  <si>
-    <t>68,35%</t>
-  </si>
-  <si>
-    <t>79,09%</t>
-  </si>
-  <si>
-    <t>72,39%</t>
-  </si>
-  <si>
-    <t>67,36%</t>
-  </si>
-  <si>
-    <t>77,51%</t>
-  </si>
-  <si>
-    <t>73,13%</t>
-  </si>
-  <si>
-    <t>69,29%</t>
-  </si>
-  <si>
-    <t>76,96%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>83,71%</t>
-  </si>
-  <si>
-    <t>78,37%</t>
-  </si>
-  <si>
-    <t>88,01%</t>
-  </si>
-  <si>
-    <t>81,66%</t>
-  </si>
-  <si>
-    <t>76,57%</t>
-  </si>
-  <si>
-    <t>85,99%</t>
-  </si>
-  <si>
-    <t>82,68%</t>
-  </si>
-  <si>
-    <t>79,03%</t>
-  </si>
-  <si>
-    <t>86,11%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>31,51%</t>
-  </si>
-  <si>
-    <t>28,91%</t>
-  </si>
-  <si>
-    <t>34,25%</t>
-  </si>
-  <si>
-    <t>29,53%</t>
-  </si>
-  <si>
-    <t>26,83%</t>
-  </si>
-  <si>
-    <t>32,2%</t>
-  </si>
-  <si>
-    <t>30,55%</t>
-  </si>
-  <si>
-    <t>28,44%</t>
-  </si>
-  <si>
-    <t>32,54%</t>
-  </si>
-  <si>
-    <t>66,95%</t>
-  </si>
-  <si>
-    <t>63,9%</t>
-  </si>
-  <si>
-    <t>69,67%</t>
-  </si>
-  <si>
-    <t>68,73%</t>
-  </si>
-  <si>
-    <t>66,08%</t>
-  </si>
-  <si>
-    <t>71,42%</t>
-  </si>
-  <si>
-    <t>67,82%</t>
-  </si>
-  <si>
-    <t>66,02%</t>
-  </si>
-  <si>
-    <t>70,02%</t>
-  </si>
-  <si>
-    <t>Menores en función de si duermen menos/más/igual de las horas recomendadas en función de su edad en 2023 (Tasa respuesta: 99,43%)</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>68,18%</t>
-  </si>
-  <si>
-    <t>58,64%</t>
-  </si>
-  <si>
-    <t>77,02%</t>
-  </si>
-  <si>
-    <t>74,7%</t>
-  </si>
-  <si>
-    <t>66,64%</t>
-  </si>
-  <si>
-    <t>82,53%</t>
-  </si>
-  <si>
-    <t>71,4%</t>
-  </si>
-  <si>
-    <t>64,99%</t>
-  </si>
-  <si>
-    <t>77,26%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>37,19%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>31,55%</t>
-  </si>
-  <si>
-    <t>25,99%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>31,96%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>34,82%</t>
-  </si>
-  <si>
-    <t>29,36%</t>
-  </si>
-  <si>
-    <t>41,76%</t>
-  </si>
-  <si>
-    <t>34,86%</t>
-  </si>
-  <si>
-    <t>41,02%</t>
-  </si>
-  <si>
-    <t>34,84%</t>
-  </si>
-  <si>
-    <t>30,73%</t>
-  </si>
-  <si>
-    <t>39,36%</t>
-  </si>
-  <si>
-    <t>65,18%</t>
-  </si>
-  <si>
-    <t>58,24%</t>
-  </si>
-  <si>
-    <t>70,64%</t>
-  </si>
-  <si>
-    <t>64,08%</t>
-  </si>
-  <si>
-    <t>57,31%</t>
-  </si>
-  <si>
-    <t>69,37%</t>
-  </si>
-  <si>
-    <t>64,66%</t>
-  </si>
-  <si>
-    <t>60,02%</t>
-  </si>
-  <si>
-    <t>68,84%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>29,55%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>35,88%</t>
-  </si>
-  <si>
-    <t>21,6%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>28,43%</t>
-  </si>
-  <si>
-    <t>25,84%</t>
-  </si>
-  <si>
-    <t>22,14%</t>
-  </si>
-  <si>
-    <t>30,4%</t>
-  </si>
-  <si>
-    <t>70,45%</t>
-  </si>
-  <si>
-    <t>64,12%</t>
-  </si>
-  <si>
-    <t>75,9%</t>
-  </si>
-  <si>
-    <t>76,91%</t>
-  </si>
-  <si>
-    <t>70,59%</t>
-  </si>
-  <si>
-    <t>82,06%</t>
-  </si>
-  <si>
-    <t>73,47%</t>
-  </si>
-  <si>
-    <t>68,75%</t>
-  </si>
-  <si>
-    <t>77,11%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>81,16%</t>
-  </si>
-  <si>
-    <t>75,67%</t>
-  </si>
-  <si>
-    <t>85,43%</t>
-  </si>
-  <si>
-    <t>76,46%</t>
-  </si>
-  <si>
-    <t>85,18%</t>
-  </si>
-  <si>
-    <t>81,08%</t>
-  </si>
-  <si>
-    <t>77,39%</t>
-  </si>
-  <si>
-    <t>84,04%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
+    <t>1,87%</t>
   </si>
   <si>
     <t>28,93%</t>
   </si>
   <si>
-    <t>25,9%</t>
-  </si>
-  <si>
-    <t>32,19%</t>
+    <t>25,61%</t>
+  </si>
+  <si>
+    <t>31,76%</t>
   </si>
   <si>
     <t>27,92%</t>
   </si>
   <si>
-    <t>24,85%</t>
-  </si>
-  <si>
-    <t>30,87%</t>
+    <t>25,13%</t>
+  </si>
+  <si>
+    <t>30,94%</t>
   </si>
   <si>
     <t>28,45%</t>
   </si>
   <si>
-    <t>26,24%</t>
-  </si>
-  <si>
-    <t>30,22%</t>
+    <t>26,33%</t>
   </si>
   <si>
     <t>70,03%</t>
   </si>
   <si>
-    <t>66,83%</t>
-  </si>
-  <si>
-    <t>73,04%</t>
+    <t>66,99%</t>
+  </si>
+  <si>
+    <t>73,4%</t>
   </si>
   <si>
     <t>70,7%</t>
   </si>
   <si>
-    <t>67,85%</t>
-  </si>
-  <si>
-    <t>73,78%</t>
-  </si>
-  <si>
-    <t>70,35%</t>
-  </si>
-  <si>
-    <t>68,36%</t>
-  </si>
-  <si>
-    <t>72,55%</t>
+    <t>67,87%</t>
+  </si>
+  <si>
+    <t>73,66%</t>
+  </si>
+  <si>
+    <t>68,13%</t>
+  </si>
+  <si>
+    <t>72,42%</t>
   </si>
 </sst>
 </file>
@@ -2013,7 +1983,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F0C86E0-8C6A-49FA-9B65-31D38AA0BC36}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC300006-86EE-4191-B69E-81C98A3C212B}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2788,7 +2758,7 @@
         <v>104</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>105</v>
@@ -2967,7 +2937,7 @@
         <v>125</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>78</v>
+        <v>126</v>
       </c>
       <c r="H20" s="7">
         <v>23</v>
@@ -2976,13 +2946,13 @@
         <v>14223</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M20" s="7">
         <v>44</v>
@@ -2991,13 +2961,13 @@
         <v>28176</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3012,13 +2982,13 @@
         <v>173158</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H21" s="7">
         <v>249</v>
@@ -3027,13 +2997,13 @@
         <v>163746</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M21" s="7">
         <v>511</v>
@@ -3042,13 +3012,13 @@
         <v>336904</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3063,13 +3033,13 @@
         <v>532368</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H22" s="7">
         <v>737</v>
@@ -3078,13 +3048,13 @@
         <v>497172</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M22" s="7">
         <v>1535</v>
@@ -3093,13 +3063,13 @@
         <v>1029540</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3155,7 +3125,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -3175,7 +3145,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E92F5D6B-F71A-4A96-B50F-941F6F80B585}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7FB6DBF-C706-4546-B317-2662B7D62D6A}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3192,7 +3162,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3299,13 +3269,13 @@
         <v>12373</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H4" s="7">
         <v>13</v>
@@ -3314,13 +3284,13 @@
         <v>9132</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M4" s="7">
         <v>30</v>
@@ -3329,13 +3299,13 @@
         <v>21505</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3350,13 +3320,13 @@
         <v>60085</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H5" s="7">
         <v>103</v>
@@ -3365,13 +3335,13 @@
         <v>66725</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M5" s="7">
         <v>188</v>
@@ -3380,13 +3350,13 @@
         <v>126810</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3401,13 +3371,13 @@
         <v>72864</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H6" s="7">
         <v>103</v>
@@ -3416,13 +3386,13 @@
         <v>70904</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M6" s="7">
         <v>207</v>
@@ -3431,13 +3401,13 @@
         <v>143768</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3505,13 +3475,13 @@
         <v>3299</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H8" s="7">
         <v>6</v>
@@ -3520,13 +3490,13 @@
         <v>4122</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M8" s="7">
         <v>11</v>
@@ -3535,13 +3505,13 @@
         <v>7421</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3556,13 +3526,13 @@
         <v>68537</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H9" s="7">
         <v>81</v>
@@ -3571,13 +3541,13 @@
         <v>56505</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M9" s="7">
         <v>178</v>
@@ -3586,13 +3556,13 @@
         <v>125042</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3607,28 +3577,28 @@
         <v>197155</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H10" s="7">
         <v>252</v>
       </c>
       <c r="I10" s="7">
-        <v>174836</v>
+        <v>174837</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M10" s="7">
         <v>524</v>
@@ -3637,13 +3607,13 @@
         <v>371992</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3670,7 +3640,7 @@
         <v>339</v>
       </c>
       <c r="I11" s="7">
-        <v>235463</v>
+        <v>235464</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -3711,13 +3681,13 @@
         <v>3311</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H12" s="7">
         <v>3</v>
@@ -3726,13 +3696,13 @@
         <v>2139</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M12" s="7">
         <v>8</v>
@@ -3741,13 +3711,13 @@
         <v>5450</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>49</v>
+        <v>187</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3762,13 +3732,13 @@
         <v>37052</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H13" s="7">
         <v>45</v>
@@ -3777,13 +3747,13 @@
         <v>31121</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M13" s="7">
         <v>99</v>
@@ -3792,13 +3762,13 @@
         <v>68173</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3813,13 +3783,13 @@
         <v>118208</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H14" s="7">
         <v>174</v>
@@ -3828,13 +3798,13 @@
         <v>123108</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M14" s="7">
         <v>343</v>
@@ -3843,13 +3813,13 @@
         <v>241316</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3917,13 +3887,13 @@
         <v>2677</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -3932,13 +3902,13 @@
         <v>2063</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>237</v>
+        <v>72</v>
       </c>
       <c r="M16" s="7">
         <v>7</v>
@@ -3947,13 +3917,13 @@
         <v>4740</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>127</v>
+        <v>238</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>183</v>
+        <v>239</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3968,13 +3938,13 @@
         <v>26882</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="H17" s="7">
         <v>38</v>
@@ -3983,13 +3953,13 @@
         <v>27171</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="M17" s="7">
         <v>77</v>
@@ -3998,13 +3968,13 @@
         <v>54053</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4019,13 +3989,13 @@
         <v>149728</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H18" s="7">
         <v>202</v>
@@ -4034,13 +4004,13 @@
         <v>142103</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="M18" s="7">
         <v>423</v>
@@ -4049,13 +4019,13 @@
         <v>291831</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>256</v>
+        <v>117</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4123,13 +4093,13 @@
         <v>21660</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H20" s="7">
         <v>25</v>
@@ -4138,13 +4108,13 @@
         <v>17456</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M20" s="7">
         <v>56</v>
@@ -4153,13 +4123,13 @@
         <v>39116</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4174,13 +4144,13 @@
         <v>192556</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H21" s="7">
         <v>267</v>
@@ -4189,13 +4159,13 @@
         <v>181522</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M21" s="7">
         <v>542</v>
@@ -4204,13 +4174,13 @@
         <v>374078</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4225,13 +4195,13 @@
         <v>537955</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H22" s="7">
         <v>731</v>
@@ -4240,13 +4210,13 @@
         <v>510951</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M22" s="7">
         <v>1497</v>
@@ -4255,13 +4225,13 @@
         <v>1048906</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4317,7 +4287,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -4337,7 +4307,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2C7F070-338C-449F-B7C4-A940A08A3008}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1864C3A1-D016-45EE-80F4-C805287CB4AE}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4354,7 +4324,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4461,13 +4431,13 @@
         <v>3810</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>128</v>
+        <v>286</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="H4" s="7">
         <v>10</v>
@@ -4476,13 +4446,13 @@
         <v>5829</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="M4" s="7">
         <v>17</v>
@@ -4491,13 +4461,13 @@
         <v>9640</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>291</v>
+        <v>127</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4512,13 +4482,13 @@
         <v>63396</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H5" s="7">
         <v>98</v>
@@ -4527,13 +4497,13 @@
         <v>60930</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M5" s="7">
         <v>195</v>
@@ -4542,13 +4512,13 @@
         <v>124326</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4563,13 +4533,13 @@
         <v>56425</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H6" s="7">
         <v>99</v>
@@ -4578,13 +4548,13 @@
         <v>62608</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M6" s="7">
         <v>181</v>
@@ -4593,13 +4563,13 @@
         <v>119033</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4667,13 +4637,13 @@
         <v>3458</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H8" s="7">
         <v>5</v>
@@ -4682,13 +4652,13 @@
         <v>3490</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M8" s="7">
         <v>10</v>
@@ -4697,10 +4667,10 @@
         <v>6949</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>317</v>
+        <v>49</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>318</v>
@@ -4876,10 +4846,10 @@
         <v>98</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>265</v>
+        <v>314</v>
       </c>
       <c r="H12" s="7">
         <v>4</v>
@@ -4891,10 +4861,10 @@
         <v>104</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>210</v>
+        <v>337</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M12" s="7">
         <v>8</v>
@@ -4906,10 +4876,10 @@
         <v>70</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4924,13 +4894,13 @@
         <v>46127</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H13" s="7">
         <v>71</v>
@@ -4939,10 +4909,10 @@
         <v>49860</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>344</v>
+        <v>57</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>345</v>
@@ -4975,13 +4945,13 @@
         <v>137972</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>349</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>350</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>351</v>
       </c>
       <c r="H14" s="7">
         <v>197</v>
@@ -4990,13 +4960,13 @@
         <v>136738</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>352</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>353</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>354</v>
       </c>
       <c r="M14" s="7">
         <v>389</v>
@@ -5005,13 +4975,13 @@
         <v>274710</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>356</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5079,13 +5049,13 @@
         <v>1477</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>359</v>
+        <v>211</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>360</v>
+        <v>286</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -5094,13 +5064,13 @@
         <v>524</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>210</v>
+        <v>358</v>
       </c>
       <c r="K16" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>359</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="M16" s="7">
         <v>3</v>
@@ -5109,13 +5079,13 @@
         <v>2001</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>183</v>
+        <v>239</v>
       </c>
       <c r="P16" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>361</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5130,13 +5100,13 @@
         <v>26291</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>362</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>363</v>
+        <v>51</v>
       </c>
       <c r="H17" s="7">
         <v>44</v>
@@ -5145,13 +5115,13 @@
         <v>31171</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="K17" s="7" t="s">
-        <v>365</v>
-      </c>
       <c r="L17" s="7" t="s">
-        <v>366</v>
+        <v>271</v>
       </c>
       <c r="M17" s="7">
         <v>79</v>
@@ -5160,13 +5130,13 @@
         <v>57462</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>367</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5181,13 +5151,13 @@
         <v>142681</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>370</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>372</v>
       </c>
       <c r="H18" s="7">
         <v>200</v>
@@ -5196,13 +5166,13 @@
         <v>141082</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>373</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>375</v>
       </c>
       <c r="M18" s="7">
         <v>393</v>
@@ -5211,13 +5181,13 @@
         <v>283763</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>377</v>
+        <v>251</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5285,13 +5255,13 @@
         <v>11373</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>379</v>
+        <v>359</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>381</v>
+        <v>261</v>
       </c>
       <c r="H20" s="7">
         <v>20</v>
@@ -5300,13 +5270,13 @@
         <v>12145</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>318</v>
+        <v>379</v>
       </c>
       <c r="M20" s="7">
         <v>38</v>
@@ -5315,13 +5285,13 @@
         <v>23518</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5336,13 +5306,13 @@
         <v>232593</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="H21" s="7">
         <v>316</v>
@@ -5351,13 +5321,13 @@
         <v>206513</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>391</v>
+        <v>135</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="M21" s="7">
         <v>651</v>
@@ -5366,13 +5336,13 @@
         <v>439106</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5387,13 +5357,13 @@
         <v>494276</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="H22" s="7">
         <v>716</v>
@@ -5402,13 +5372,13 @@
         <v>480594</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="M22" s="7">
         <v>1418</v>
@@ -5417,13 +5387,13 @@
         <v>974870</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5479,7 +5449,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -5499,7 +5469,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA6D3D3E-873B-4E42-B135-9D42EFF1AF1C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35048CF5-D959-4C95-83FB-933E12356D0D}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5516,7 +5486,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5623,13 +5593,13 @@
         <v>2134</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>46</v>
+        <v>402</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -5638,13 +5608,13 @@
         <v>880</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>379</v>
+        <v>359</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>359</v>
+        <v>211</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="M4" s="7">
         <v>5</v>
@@ -5653,13 +5623,13 @@
         <v>3014</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>409</v>
+        <v>240</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>410</v>
+        <v>378</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5674,13 +5644,13 @@
         <v>39888</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="H5" s="7">
         <v>78</v>
@@ -5689,13 +5659,13 @@
         <v>42527</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>417</v>
+        <v>115</v>
       </c>
       <c r="M5" s="7">
         <v>157</v>
@@ -5704,13 +5674,13 @@
         <v>82415</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5725,13 +5695,13 @@
         <v>16481</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>268</v>
+        <v>414</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="H6" s="7">
         <v>28</v>
@@ -5740,13 +5710,13 @@
         <v>13525</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="M6" s="7">
         <v>62</v>
@@ -5755,13 +5725,13 @@
         <v>30006</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5829,13 +5799,13 @@
         <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>359</v>
+        <v>211</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="H8" s="7">
         <v>2</v>
@@ -5844,13 +5814,13 @@
         <v>1684</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>431</v>
+        <v>287</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>359</v>
+        <v>211</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="M8" s="7">
         <v>2</v>
@@ -5859,13 +5829,13 @@
         <v>1684</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>77</v>
+        <v>426</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>359</v>
+        <v>211</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>433</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5880,13 +5850,13 @@
         <v>61046</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="H9" s="7">
         <v>98</v>
@@ -5895,13 +5865,13 @@
         <v>55341</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>348</v>
+        <v>194</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="M9" s="7">
         <v>201</v>
@@ -5910,13 +5880,13 @@
         <v>116387</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5931,13 +5901,13 @@
         <v>114253</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="H10" s="7">
         <v>158</v>
@@ -5946,13 +5916,13 @@
         <v>101739</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="M10" s="7">
         <v>331</v>
@@ -5961,13 +5931,13 @@
         <v>215992</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>450</v>
+        <v>199</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6035,13 +6005,13 @@
         <v>0</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>359</v>
+        <v>211</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>49</v>
+        <v>443</v>
       </c>
       <c r="H12" s="7">
         <v>3</v>
@@ -6050,13 +6020,13 @@
         <v>2621</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="M12" s="7">
         <v>3</v>
@@ -6065,13 +6035,13 @@
         <v>2621</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6086,13 +6056,13 @@
         <v>59419</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="H13" s="7">
         <v>51</v>
@@ -6101,13 +6071,13 @@
         <v>38040</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="M13" s="7">
         <v>126</v>
@@ -6116,13 +6086,13 @@
         <v>97459</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6137,13 +6107,13 @@
         <v>141656</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>465</v>
+        <v>438</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="H14" s="7">
         <v>179</v>
@@ -6152,13 +6122,13 @@
         <v>135453</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="M14" s="7">
         <v>346</v>
@@ -6167,13 +6137,13 @@
         <v>277109</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6241,13 +6211,13 @@
         <v>5365</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>474</v>
+        <v>239</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="H16" s="7">
         <v>5</v>
@@ -6256,13 +6226,13 @@
         <v>3762</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>156</v>
+        <v>468</v>
       </c>
       <c r="M16" s="7">
         <v>10</v>
@@ -6271,13 +6241,13 @@
         <v>9127</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>207</v>
+        <v>469</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6292,13 +6262,13 @@
         <v>49076</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="H17" s="7">
         <v>65</v>
@@ -6307,13 +6277,13 @@
         <v>44805</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="M17" s="7">
         <v>123</v>
@@ -6322,13 +6292,13 @@
         <v>93881</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6343,13 +6313,13 @@
         <v>234595</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="H18" s="7">
         <v>265</v>
@@ -6361,10 +6331,10 @@
         <v>121</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="M18" s="7">
         <v>543</v>
@@ -6373,13 +6343,13 @@
         <v>441557</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6447,13 +6417,13 @@
         <v>7499</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>496</v>
+        <v>74</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="H20" s="7">
         <v>12</v>
@@ -6462,13 +6432,13 @@
         <v>8947</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="M20" s="7">
         <v>20</v>
@@ -6477,13 +6447,13 @@
         <v>16446</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6498,13 +6468,13 @@
         <v>209428</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="H21" s="7">
         <v>292</v>
@@ -6513,13 +6483,13 @@
         <v>180713</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="M21" s="7">
         <v>607</v>
@@ -6528,13 +6498,13 @@
         <v>390141</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>511</v>
+        <v>388</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6549,13 +6519,13 @@
         <v>506986</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="H22" s="7">
         <v>630</v>
@@ -6564,13 +6534,13 @@
         <v>457678</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="M22" s="7">
         <v>1282</v>
@@ -6579,13 +6549,13 @@
         <v>964664</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>518</v>
+        <v>205</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6641,7 +6611,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IQ23_R2-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IQ23_R2-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF3D88C7-8B27-4071-8C83-29FDE7C13C2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B09B90B9-EC75-42B2-BD21-178BDB6AE05C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2E511FED-9003-411A-AEE0-C3DBE4D15F66}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{902123FE-D5E4-4D67-9A74-7B9BDD1DBE0F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,15 +39,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="511">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="512">
   <si>
     <t>Menores en función de si duermen menos/más/igual de las horas recomendadas en función de su edad en 2007 (Tasa respuesta: 99,33%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -74,1504 +74,1507 @@
     <t>Más</t>
   </si>
   <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
     <t>4,95%</t>
   </si>
   <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
   </si>
   <si>
     <t>5,37%</t>
   </si>
   <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
   </si>
   <si>
     <t>Menos</t>
   </si>
   <si>
+    <t>41,68%</t>
+  </si>
+  <si>
+    <t>34,05%</t>
+  </si>
+  <si>
+    <t>49,66%</t>
+  </si>
+  <si>
     <t>45,01%</t>
   </si>
   <si>
-    <t>37,78%</t>
-  </si>
-  <si>
-    <t>52,9%</t>
-  </si>
-  <si>
-    <t>41,68%</t>
-  </si>
-  <si>
-    <t>34,04%</t>
-  </si>
-  <si>
-    <t>48,86%</t>
+    <t>37,37%</t>
+  </si>
+  <si>
+    <t>51,74%</t>
   </si>
   <si>
     <t>43,45%</t>
   </si>
   <si>
+    <t>38,45%</t>
+  </si>
+  <si>
+    <t>49,0%</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>52,46%</t>
+  </si>
+  <si>
+    <t>44,67%</t>
+  </si>
+  <si>
+    <t>60,59%</t>
+  </si>
+  <si>
+    <t>50,04%</t>
+  </si>
+  <si>
+    <t>43,09%</t>
+  </si>
+  <si>
+    <t>57,58%</t>
+  </si>
+  <si>
+    <t>51,17%</t>
+  </si>
+  <si>
+    <t>46,19%</t>
+  </si>
+  <si>
+    <t>56,7%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>21,42%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>75,7%</t>
+  </si>
+  <si>
+    <t>71,05%</t>
+  </si>
+  <si>
+    <t>79,89%</t>
+  </si>
+  <si>
+    <t>78,54%</t>
+  </si>
+  <si>
+    <t>74,34%</t>
+  </si>
+  <si>
+    <t>82,49%</t>
+  </si>
+  <si>
+    <t>77,12%</t>
+  </si>
+  <si>
+    <t>73,88%</t>
+  </si>
+  <si>
+    <t>79,95%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>26,13%</t>
+  </si>
+  <si>
+    <t>24,94%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>30,84%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>26,6%</t>
+  </si>
+  <si>
+    <t>78,67%</t>
+  </si>
+  <si>
+    <t>72,72%</t>
+  </si>
+  <si>
+    <t>84,29%</t>
+  </si>
+  <si>
+    <t>73,75%</t>
+  </si>
+  <si>
+    <t>67,42%</t>
+  </si>
+  <si>
+    <t>79,21%</t>
+  </si>
+  <si>
+    <t>76,06%</t>
+  </si>
+  <si>
+    <t>71,96%</t>
+  </si>
+  <si>
+    <t>79,76%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>19,67%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>79,31%</t>
+  </si>
+  <si>
+    <t>84,05%</t>
+  </si>
+  <si>
+    <t>82,57%</t>
+  </si>
+  <si>
+    <t>77,55%</t>
+  </si>
+  <si>
+    <t>86,31%</t>
+  </si>
+  <si>
+    <t>80,99%</t>
+  </si>
+  <si>
+    <t>77,38%</t>
+  </si>
+  <si>
+    <t>84,04%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>26,83%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>26,73%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>73,64%</t>
+  </si>
+  <si>
+    <t>71,17%</t>
+  </si>
+  <si>
+    <t>76,38%</t>
+  </si>
+  <si>
+    <t>73,99%</t>
+  </si>
+  <si>
+    <t>71,33%</t>
+  </si>
+  <si>
+    <t>76,62%</t>
+  </si>
+  <si>
+    <t>73,82%</t>
+  </si>
+  <si>
+    <t>71,97%</t>
+  </si>
+  <si>
+    <t>75,8%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores en función de si duermen menos/más/igual de las horas recomendadas en función de su edad en 2012 (Tasa respuesta: 99,81%)</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>45,47%</t>
+  </si>
+  <si>
     <t>38,39%</t>
   </si>
   <si>
-    <t>49,24%</t>
-  </si>
-  <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>50,04%</t>
+    <t>52,41%</t>
+  </si>
+  <si>
+    <t>41,35%</t>
+  </si>
+  <si>
+    <t>34,42%</t>
+  </si>
+  <si>
+    <t>48,49%</t>
+  </si>
+  <si>
+    <t>43,42%</t>
+  </si>
+  <si>
+    <t>38,44%</t>
+  </si>
+  <si>
+    <t>47,64%</t>
+  </si>
+  <si>
+    <t>48,31%</t>
+  </si>
+  <si>
+    <t>40,75%</t>
+  </si>
+  <si>
+    <t>55,4%</t>
+  </si>
+  <si>
+    <t>50,14%</t>
+  </si>
+  <si>
+    <t>42,84%</t>
+  </si>
+  <si>
+    <t>57,26%</t>
+  </si>
+  <si>
+    <t>49,22%</t>
+  </si>
+  <si>
+    <t>44,65%</t>
+  </si>
+  <si>
+    <t>54,15%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>28,79%</t>
+  </si>
+  <si>
+    <t>25,48%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>30,0%</t>
+  </si>
+  <si>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>28,02%</t>
+  </si>
+  <si>
+    <t>74,25%</t>
+  </si>
+  <si>
+    <t>69,47%</t>
+  </si>
+  <si>
+    <t>78,76%</t>
+  </si>
+  <si>
+    <t>73,29%</t>
+  </si>
+  <si>
+    <t>68,68%</t>
+  </si>
+  <si>
+    <t>77,74%</t>
+  </si>
+  <si>
+    <t>73,74%</t>
+  </si>
+  <si>
+    <t>70,49%</t>
+  </si>
+  <si>
+    <t>77,02%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>25,27%</t>
+  </si>
+  <si>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>29,43%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>78,73%</t>
+  </si>
+  <si>
+    <t>73,11%</t>
+  </si>
+  <si>
+    <t>83,68%</t>
+  </si>
+  <si>
+    <t>74,55%</t>
+  </si>
+  <si>
+    <t>68,02%</t>
+  </si>
+  <si>
+    <t>79,7%</t>
+  </si>
+  <si>
+    <t>72,59%</t>
+  </si>
+  <si>
+    <t>80,56%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>82,94%</t>
+  </si>
+  <si>
+    <t>77,62%</t>
+  </si>
+  <si>
+    <t>87,59%</t>
+  </si>
+  <si>
+    <t>83,51%</t>
+  </si>
+  <si>
+    <t>78,87%</t>
+  </si>
+  <si>
+    <t>87,74%</t>
+  </si>
+  <si>
+    <t>83,23%</t>
+  </si>
+  <si>
+    <t>86,61%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>28,2%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>28,14%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>23,68%</t>
+  </si>
+  <si>
+    <t>27,32%</t>
+  </si>
+  <si>
+    <t>69,15%</t>
+  </si>
+  <si>
+    <t>74,47%</t>
+  </si>
+  <si>
+    <t>71,52%</t>
+  </si>
+  <si>
+    <t>68,73%</t>
+  </si>
+  <si>
+    <t>74,11%</t>
+  </si>
+  <si>
+    <t>71,74%</t>
+  </si>
+  <si>
+    <t>69,71%</t>
+  </si>
+  <si>
+    <t>73,46%</t>
+  </si>
+  <si>
+    <t>Menores en función de si duermen menos/más/igual de las horas recomendadas en función de su edad en 2016 (Tasa respuesta: 99,11%)</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>47,1%</t>
+  </si>
+  <si>
+    <t>40,41%</t>
+  </si>
+  <si>
+    <t>54,38%</t>
+  </si>
+  <si>
+    <t>51,28%</t>
+  </si>
+  <si>
+    <t>43,85%</t>
+  </si>
+  <si>
+    <t>58,46%</t>
+  </si>
+  <si>
+    <t>49,14%</t>
+  </si>
+  <si>
+    <t>44,55%</t>
+  </si>
+  <si>
+    <t>54,81%</t>
+  </si>
+  <si>
+    <t>48,4%</t>
+  </si>
+  <si>
+    <t>41,18%</t>
+  </si>
+  <si>
+    <t>55,62%</t>
+  </si>
+  <si>
+    <t>45,64%</t>
+  </si>
+  <si>
+    <t>38,31%</t>
+  </si>
+  <si>
+    <t>52,7%</t>
+  </si>
+  <si>
+    <t>47,05%</t>
+  </si>
+  <si>
+    <t>41,45%</t>
+  </si>
+  <si>
+    <t>51,65%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>31,0%</t>
+  </si>
+  <si>
+    <t>26,4%</t>
+  </si>
+  <si>
+    <t>35,94%</t>
+  </si>
+  <si>
+    <t>37,59%</t>
+  </si>
+  <si>
+    <t>33,25%</t>
+  </si>
+  <si>
+    <t>43,01%</t>
+  </si>
+  <si>
+    <t>34,65%</t>
+  </si>
+  <si>
+    <t>30,93%</t>
+  </si>
+  <si>
+    <t>37,76%</t>
+  </si>
+  <si>
+    <t>67,32%</t>
+  </si>
+  <si>
+    <t>62,25%</t>
+  </si>
+  <si>
+    <t>72,26%</t>
+  </si>
+  <si>
+    <t>61,06%</t>
+  </si>
+  <si>
+    <t>55,48%</t>
+  </si>
+  <si>
+    <t>65,44%</t>
+  </si>
+  <si>
+    <t>63,86%</t>
+  </si>
+  <si>
+    <t>60,54%</t>
+  </si>
+  <si>
+    <t>67,47%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>26,39%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>31,89%</t>
+  </si>
+  <si>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>30,08%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>29,86%</t>
+  </si>
+  <si>
+    <t>72,39%</t>
+  </si>
+  <si>
+    <t>66,79%</t>
+  </si>
+  <si>
+    <t>77,65%</t>
+  </si>
+  <si>
+    <t>73,89%</t>
+  </si>
+  <si>
+    <t>68,27%</t>
+  </si>
+  <si>
+    <t>78,94%</t>
+  </si>
+  <si>
+    <t>73,13%</t>
+  </si>
+  <si>
+    <t>68,96%</t>
+  </si>
+  <si>
+    <t>76,35%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>23,17%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>81,66%</t>
+  </si>
+  <si>
+    <t>76,37%</t>
+  </si>
+  <si>
+    <t>86,22%</t>
+  </si>
+  <si>
+    <t>83,71%</t>
+  </si>
+  <si>
+    <t>78,58%</t>
+  </si>
+  <si>
+    <t>88,07%</t>
+  </si>
+  <si>
+    <t>82,68%</t>
+  </si>
+  <si>
+    <t>78,75%</t>
+  </si>
+  <si>
+    <t>85,82%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>29,53%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
+  </si>
+  <si>
+    <t>32,18%</t>
+  </si>
+  <si>
+    <t>31,51%</t>
+  </si>
+  <si>
+    <t>28,61%</t>
+  </si>
+  <si>
+    <t>34,4%</t>
+  </si>
+  <si>
+    <t>30,55%</t>
+  </si>
+  <si>
+    <t>28,73%</t>
+  </si>
+  <si>
+    <t>32,6%</t>
+  </si>
+  <si>
+    <t>65,99%</t>
+  </si>
+  <si>
+    <t>71,6%</t>
+  </si>
+  <si>
+    <t>66,95%</t>
+  </si>
+  <si>
+    <t>64,18%</t>
+  </si>
+  <si>
+    <t>69,86%</t>
+  </si>
+  <si>
+    <t>67,82%</t>
+  </si>
+  <si>
+    <t>65,75%</t>
+  </si>
+  <si>
+    <t>69,67%</t>
+  </si>
+  <si>
+    <t>Menores en función de si duermen menos/más/igual de las horas recomendadas en función de su edad en 2023 (Tasa respuesta: 99,43%)</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>75,1%</t>
+  </si>
+  <si>
+    <t>65,96%</t>
+  </si>
+  <si>
+    <t>68,42%</t>
+  </si>
+  <si>
+    <t>59,22%</t>
+  </si>
+  <si>
+    <t>76,9%</t>
+  </si>
+  <si>
+    <t>71,63%</t>
+  </si>
+  <si>
+    <t>65,39%</t>
+  </si>
+  <si>
+    <t>77,06%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>32,65%</t>
+  </si>
+  <si>
+    <t>28,06%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>36,87%</t>
+  </si>
+  <si>
+    <t>25,8%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>31,99%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>34,89%</t>
+  </si>
+  <si>
+    <t>28,82%</t>
+  </si>
+  <si>
+    <t>41,43%</t>
+  </si>
+  <si>
+    <t>35,66%</t>
+  </si>
+  <si>
+    <t>29,92%</t>
   </si>
   <si>
     <t>42,07%</t>
   </si>
   <si>
-    <t>57,35%</t>
-  </si>
-  <si>
-    <t>52,46%</t>
-  </si>
-  <si>
-    <t>45,26%</t>
-  </si>
-  <si>
-    <t>60,63%</t>
-  </si>
-  <si>
-    <t>51,17%</t>
-  </si>
-  <si>
-    <t>45,8%</t>
-  </si>
-  <si>
-    <t>56,06%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>3-7</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
+    <t>35,3%</t>
+  </si>
+  <si>
+    <t>31,43%</t>
+  </si>
+  <si>
+    <t>40,04%</t>
+  </si>
+  <si>
+    <t>64,08%</t>
+  </si>
+  <si>
+    <t>58,13%</t>
+  </si>
+  <si>
+    <t>70,18%</t>
+  </si>
+  <si>
+    <t>64,34%</t>
+  </si>
+  <si>
+    <t>57,93%</t>
+  </si>
+  <si>
+    <t>70,08%</t>
+  </si>
+  <si>
+    <t>64,22%</t>
+  </si>
+  <si>
+    <t>59,42%</t>
+  </si>
+  <si>
+    <t>68,29%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>29,26%</t>
+  </si>
+  <si>
+    <t>29,98%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>36,09%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>30,95%</t>
+  </si>
+  <si>
+    <t>76,05%</t>
+  </si>
+  <si>
+    <t>81,02%</t>
+  </si>
+  <si>
+    <t>70,02%</t>
+  </si>
+  <si>
+    <t>63,91%</t>
+  </si>
+  <si>
+    <t>76,04%</t>
+  </si>
+  <si>
+    <t>72,74%</t>
+  </si>
+  <si>
+    <t>68,54%</t>
+  </si>
+  <si>
+    <t>76,86%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
   </si>
   <si>
     <t>16,55%</t>
   </si>
   <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>21,42%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
-  </si>
-  <si>
-    <t>24,33%</t>
-  </si>
-  <si>
-    <t>78,54%</t>
-  </si>
-  <si>
-    <t>74,49%</t>
-  </si>
-  <si>
-    <t>82,34%</t>
-  </si>
-  <si>
-    <t>75,7%</t>
-  </si>
-  <si>
-    <t>71,11%</t>
-  </si>
-  <si>
-    <t>79,9%</t>
-  </si>
-  <si>
-    <t>77,12%</t>
-  </si>
-  <si>
-    <t>73,91%</t>
-  </si>
-  <si>
-    <t>79,87%</t>
-  </si>
-  <si>
-    <t>8-11</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>24,94%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>31,3%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>25,73%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>27,19%</t>
-  </si>
-  <si>
-    <t>73,75%</t>
-  </si>
-  <si>
-    <t>67,19%</t>
-  </si>
-  <si>
-    <t>79,37%</t>
-  </si>
-  <si>
-    <t>78,67%</t>
-  </si>
-  <si>
-    <t>72,9%</t>
-  </si>
-  <si>
-    <t>84,07%</t>
-  </si>
-  <si>
-    <t>76,06%</t>
-  </si>
-  <si>
-    <t>71,41%</t>
-  </si>
-  <si>
-    <t>79,92%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>82,57%</t>
-  </si>
-  <si>
-    <t>77,54%</t>
-  </si>
-  <si>
-    <t>86,24%</t>
-  </si>
-  <si>
-    <t>79,31%</t>
-  </si>
-  <si>
-    <t>73,89%</t>
-  </si>
-  <si>
-    <t>83,73%</t>
-  </si>
-  <si>
-    <t>80,99%</t>
-  </si>
-  <si>
-    <t>77,91%</t>
-  </si>
-  <si>
-    <t>84,21%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>26,79%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>26,86%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>26,3%</t>
-  </si>
-  <si>
-    <t>73,99%</t>
-  </si>
-  <si>
-    <t>71,32%</t>
-  </si>
-  <si>
-    <t>76,6%</t>
-  </si>
-  <si>
-    <t>73,64%</t>
-  </si>
-  <si>
-    <t>71,04%</t>
-  </si>
-  <si>
-    <t>76,25%</t>
-  </si>
-  <si>
-    <t>73,82%</t>
-  </si>
-  <si>
-    <t>71,78%</t>
-  </si>
-  <si>
-    <t>75,58%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores en función de si duermen menos/más/igual de las horas recomendadas en función de su edad en 2012 (Tasa respuesta: 99,81%)</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>41,35%</t>
-  </si>
-  <si>
-    <t>33,83%</t>
-  </si>
-  <si>
-    <t>48,39%</t>
-  </si>
-  <si>
-    <t>45,47%</t>
-  </si>
-  <si>
-    <t>37,99%</t>
-  </si>
-  <si>
-    <t>50,97%</t>
-  </si>
-  <si>
-    <t>43,42%</t>
-  </si>
-  <si>
-    <t>39,12%</t>
-  </si>
-  <si>
-    <t>48,69%</t>
-  </si>
-  <si>
-    <t>50,14%</t>
-  </si>
-  <si>
-    <t>43,02%</t>
-  </si>
-  <si>
-    <t>57,0%</t>
-  </si>
-  <si>
-    <t>48,31%</t>
-  </si>
-  <si>
-    <t>42,34%</t>
-  </si>
-  <si>
-    <t>55,34%</t>
-  </si>
-  <si>
-    <t>49,22%</t>
-  </si>
-  <si>
-    <t>44,59%</t>
-  </si>
-  <si>
-    <t>54,02%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>82,32%</t>
+  </si>
+  <si>
+    <t>77,3%</t>
+  </si>
+  <si>
+    <t>87,38%</t>
+  </si>
+  <si>
+    <t>81,29%</t>
+  </si>
+  <si>
+    <t>85,42%</t>
+  </si>
+  <si>
+    <t>81,77%</t>
+  </si>
+  <si>
+    <t>78,3%</t>
+  </si>
+  <si>
+    <t>85,45%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
   </si>
   <si>
     <t>0,75%</t>
   </si>
   <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>25,48%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>30,01%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>19,37%</t>
-  </si>
-  <si>
-    <t>28,72%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>28,21%</t>
-  </si>
-  <si>
-    <t>73,29%</t>
-  </si>
-  <si>
-    <t>68,48%</t>
-  </si>
-  <si>
-    <t>77,24%</t>
-  </si>
-  <si>
-    <t>74,25%</t>
-  </si>
-  <si>
-    <t>69,39%</t>
-  </si>
-  <si>
-    <t>78,84%</t>
-  </si>
-  <si>
-    <t>73,74%</t>
-  </si>
-  <si>
-    <t>70,35%</t>
-  </si>
-  <si>
-    <t>76,76%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>29,14%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>25,66%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>26,11%</t>
-  </si>
-  <si>
-    <t>74,55%</t>
-  </si>
-  <si>
-    <t>68,71%</t>
-  </si>
-  <si>
-    <t>79,71%</t>
-  </si>
-  <si>
-    <t>78,73%</t>
-  </si>
-  <si>
-    <t>73,16%</t>
-  </si>
-  <si>
-    <t>83,63%</t>
-  </si>
-  <si>
-    <t>76,62%</t>
-  </si>
-  <si>
-    <t>72,23%</t>
-  </si>
-  <si>
-    <t>80,17%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>83,51%</t>
-  </si>
-  <si>
-    <t>78,66%</t>
-  </si>
-  <si>
-    <t>87,52%</t>
-  </si>
-  <si>
-    <t>82,94%</t>
-  </si>
-  <si>
-    <t>77,73%</t>
-  </si>
-  <si>
-    <t>87,11%</t>
-  </si>
-  <si>
-    <t>83,23%</t>
-  </si>
-  <si>
-    <t>79,77%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>28,03%</t>
-  </si>
-  <si>
-    <t>25,57%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>25,58%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>27,4%</t>
-  </si>
-  <si>
-    <t>71,52%</t>
-  </si>
-  <si>
-    <t>69,06%</t>
-  </si>
-  <si>
-    <t>74,3%</t>
-  </si>
-  <si>
-    <t>71,97%</t>
-  </si>
-  <si>
-    <t>69,46%</t>
-  </si>
-  <si>
-    <t>74,59%</t>
-  </si>
-  <si>
-    <t>71,74%</t>
-  </si>
-  <si>
-    <t>69,89%</t>
-  </si>
-  <si>
-    <t>73,7%</t>
-  </si>
-  <si>
-    <t>Menores en función de si duermen menos/más/igual de las horas recomendadas en función de su edad en 2016 (Tasa respuesta: 99,11%)</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>51,28%</t>
-  </si>
-  <si>
-    <t>43,72%</t>
-  </si>
-  <si>
-    <t>58,54%</t>
-  </si>
-  <si>
-    <t>47,1%</t>
-  </si>
-  <si>
-    <t>40,62%</t>
-  </si>
-  <si>
-    <t>53,52%</t>
-  </si>
-  <si>
-    <t>49,14%</t>
-  </si>
-  <si>
-    <t>44,16%</t>
-  </si>
-  <si>
-    <t>54,06%</t>
-  </si>
-  <si>
-    <t>45,64%</t>
-  </si>
-  <si>
-    <t>38,16%</t>
-  </si>
-  <si>
-    <t>53,24%</t>
-  </si>
-  <si>
-    <t>48,4%</t>
-  </si>
-  <si>
-    <t>41,67%</t>
-  </si>
-  <si>
-    <t>54,79%</t>
-  </si>
-  <si>
-    <t>47,05%</t>
-  </si>
-  <si>
-    <t>42,03%</t>
-  </si>
-  <si>
-    <t>52,1%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>37,59%</t>
-  </si>
-  <si>
-    <t>32,85%</t>
-  </si>
-  <si>
-    <t>42,92%</t>
-  </si>
-  <si>
-    <t>31,0%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>36,24%</t>
-  </si>
-  <si>
-    <t>34,65%</t>
-  </si>
-  <si>
-    <t>31,64%</t>
-  </si>
-  <si>
-    <t>38,59%</t>
-  </si>
-  <si>
-    <t>61,06%</t>
-  </si>
-  <si>
-    <t>55,31%</t>
-  </si>
-  <si>
-    <t>65,64%</t>
-  </si>
-  <si>
-    <t>67,32%</t>
-  </si>
-  <si>
-    <t>62,03%</t>
-  </si>
-  <si>
-    <t>72,14%</t>
-  </si>
-  <si>
-    <t>63,86%</t>
-  </si>
-  <si>
-    <t>60,16%</t>
-  </si>
-  <si>
-    <t>67,12%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>30,1%</t>
-  </si>
-  <si>
-    <t>26,39%</t>
-  </si>
-  <si>
-    <t>31,79%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>29,12%</t>
-  </si>
-  <si>
-    <t>68,45%</t>
-  </si>
-  <si>
-    <t>79,24%</t>
-  </si>
-  <si>
-    <t>72,39%</t>
-  </si>
-  <si>
-    <t>66,6%</t>
-  </si>
-  <si>
-    <t>77,25%</t>
-  </si>
-  <si>
-    <t>73,13%</t>
-  </si>
-  <si>
-    <t>69,24%</t>
-  </si>
-  <si>
-    <t>76,49%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>83,71%</t>
-  </si>
-  <si>
-    <t>78,64%</t>
-  </si>
-  <si>
-    <t>88,12%</t>
-  </si>
-  <si>
-    <t>81,66%</t>
-  </si>
-  <si>
-    <t>76,89%</t>
-  </si>
-  <si>
-    <t>86,22%</t>
-  </si>
-  <si>
-    <t>82,68%</t>
-  </si>
-  <si>
-    <t>86,11%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>31,51%</t>
-  </si>
-  <si>
-    <t>28,61%</t>
-  </si>
-  <si>
-    <t>34,41%</t>
-  </si>
-  <si>
-    <t>29,53%</t>
-  </si>
-  <si>
-    <t>32,18%</t>
-  </si>
-  <si>
-    <t>30,55%</t>
-  </si>
-  <si>
-    <t>28,68%</t>
-  </si>
-  <si>
-    <t>32,6%</t>
-  </si>
-  <si>
-    <t>66,95%</t>
-  </si>
-  <si>
-    <t>63,94%</t>
-  </si>
-  <si>
-    <t>69,82%</t>
-  </si>
-  <si>
-    <t>68,73%</t>
-  </si>
-  <si>
-    <t>66,01%</t>
-  </si>
-  <si>
-    <t>71,68%</t>
-  </si>
-  <si>
-    <t>67,82%</t>
-  </si>
-  <si>
-    <t>65,6%</t>
-  </si>
-  <si>
-    <t>69,63%</t>
-  </si>
-  <si>
-    <t>Menores en función de si duermen menos/más/igual de las horas recomendadas en función de su edad en 2023 (Tasa respuesta: 99,43%)</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>68,18%</t>
-  </si>
-  <si>
-    <t>58,96%</t>
-  </si>
-  <si>
-    <t>76,46%</t>
-  </si>
-  <si>
-    <t>74,7%</t>
-  </si>
-  <si>
-    <t>65,73%</t>
-  </si>
-  <si>
-    <t>71,4%</t>
-  </si>
-  <si>
-    <t>65,02%</t>
-  </si>
-  <si>
-    <t>77,14%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>37,83%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>32,96%</t>
-  </si>
-  <si>
-    <t>25,99%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>32,5%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>34,82%</t>
-  </si>
-  <si>
-    <t>28,9%</t>
-  </si>
-  <si>
-    <t>40,6%</t>
-  </si>
-  <si>
-    <t>34,86%</t>
-  </si>
-  <si>
-    <t>40,78%</t>
-  </si>
-  <si>
-    <t>34,84%</t>
-  </si>
-  <si>
-    <t>31,05%</t>
-  </si>
-  <si>
-    <t>39,83%</t>
-  </si>
-  <si>
-    <t>65,18%</t>
-  </si>
-  <si>
-    <t>59,4%</t>
-  </si>
-  <si>
-    <t>71,1%</t>
-  </si>
-  <si>
-    <t>64,08%</t>
-  </si>
-  <si>
-    <t>58,07%</t>
-  </si>
-  <si>
-    <t>70,38%</t>
-  </si>
-  <si>
-    <t>64,66%</t>
-  </si>
-  <si>
-    <t>59,59%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
     <t>1,95%</t>
   </si>
   <si>
-    <t>29,55%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>35,92%</t>
-  </si>
-  <si>
-    <t>21,6%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>28,09%</t>
-  </si>
-  <si>
-    <t>25,84%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>30,22%</t>
-  </si>
-  <si>
-    <t>70,45%</t>
-  </si>
-  <si>
-    <t>75,91%</t>
-  </si>
-  <si>
-    <t>76,91%</t>
-  </si>
-  <si>
-    <t>70,56%</t>
-  </si>
-  <si>
-    <t>81,91%</t>
-  </si>
-  <si>
-    <t>73,47%</t>
-  </si>
-  <si>
-    <t>69,1%</t>
-  </si>
-  <si>
-    <t>77,67%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>22,3%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>81,16%</t>
-  </si>
-  <si>
-    <t>75,9%</t>
-  </si>
-  <si>
-    <t>85,67%</t>
-  </si>
-  <si>
-    <t>76,31%</t>
-  </si>
-  <si>
-    <t>85,07%</t>
-  </si>
-  <si>
-    <t>81,08%</t>
-  </si>
-  <si>
-    <t>77,7%</t>
-  </si>
-  <si>
-    <t>84,32%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>28,93%</t>
-  </si>
-  <si>
-    <t>25,61%</t>
-  </si>
-  <si>
-    <t>31,76%</t>
-  </si>
-  <si>
-    <t>27,92%</t>
-  </si>
-  <si>
-    <t>25,13%</t>
-  </si>
-  <si>
-    <t>30,94%</t>
-  </si>
-  <si>
-    <t>28,45%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>70,03%</t>
-  </si>
-  <si>
-    <t>66,99%</t>
-  </si>
-  <si>
-    <t>73,4%</t>
-  </si>
-  <si>
-    <t>70,7%</t>
-  </si>
-  <si>
-    <t>67,87%</t>
-  </si>
-  <si>
-    <t>73,66%</t>
-  </si>
-  <si>
-    <t>68,13%</t>
-  </si>
-  <si>
-    <t>72,42%</t>
+    <t>27,49%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>30,71%</t>
+  </si>
+  <si>
+    <t>29,16%</t>
+  </si>
+  <si>
+    <t>25,83%</t>
+  </si>
+  <si>
+    <t>32,48%</t>
+  </si>
+  <si>
+    <t>28,38%</t>
+  </si>
+  <si>
+    <t>26,03%</t>
+  </si>
+  <si>
+    <t>30,99%</t>
+  </si>
+  <si>
+    <t>68,0%</t>
+  </si>
+  <si>
+    <t>75,21%</t>
+  </si>
+  <si>
+    <t>69,79%</t>
+  </si>
+  <si>
+    <t>66,64%</t>
+  </si>
+  <si>
+    <t>73,23%</t>
+  </si>
+  <si>
+    <t>70,43%</t>
+  </si>
+  <si>
+    <t>67,74%</t>
+  </si>
+  <si>
+    <t>72,85%</t>
   </si>
 </sst>
 </file>
@@ -1983,7 +1986,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC300006-86EE-4191-B69E-81C98A3C212B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EBE368F-22E9-4798-8229-DB67F8DFCAC8}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2101,10 +2104,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" s="7">
-        <v>5934</v>
+        <v>6195</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -2116,10 +2119,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I4" s="7">
-        <v>6195</v>
+        <v>5934</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -2152,10 +2155,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="D5" s="7">
-        <v>53990</v>
+        <v>44062</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -2167,10 +2170,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="I5" s="7">
-        <v>44062</v>
+        <v>53990</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -2203,10 +2206,10 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D6" s="7">
-        <v>60014</v>
+        <v>55466</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -2218,10 +2221,10 @@
         <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="I6" s="7">
-        <v>55466</v>
+        <v>60014</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -2254,25 +2257,25 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
+        <v>161</v>
+      </c>
+      <c r="D7" s="7">
+        <v>105723</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="7">
         <v>180</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>119939</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H7" s="7">
-        <v>161</v>
-      </c>
-      <c r="I7" s="7">
-        <v>105723</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -2307,10 +2310,10 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D8" s="7">
-        <v>3281</v>
+        <v>4098</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>42</v>
@@ -2322,10 +2325,10 @@
         <v>44</v>
       </c>
       <c r="H8" s="7">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I8" s="7">
-        <v>4098</v>
+        <v>3281</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>45</v>
@@ -2346,10 +2349,10 @@
         <v>48</v>
       </c>
       <c r="P8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2358,34 +2361,34 @@
         <v>20</v>
       </c>
       <c r="C9" s="7">
+        <v>87</v>
+      </c>
+      <c r="D9" s="7">
+        <v>57109</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H9" s="7">
         <v>77</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>51049</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G9" s="7" t="s">
+      <c r="J9" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="H9" s="7">
-        <v>87</v>
-      </c>
-      <c r="I9" s="7">
-        <v>57109</v>
-      </c>
-      <c r="J9" s="7" t="s">
+      <c r="K9" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M9" s="7">
         <v>164</v>
@@ -2394,13 +2397,13 @@
         <v>108158</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2409,34 +2412,34 @@
         <v>30</v>
       </c>
       <c r="C10" s="7">
+        <v>283</v>
+      </c>
+      <c r="D10" s="7">
+        <v>190624</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H10" s="7">
         <v>299</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>198824</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G10" s="7" t="s">
+      <c r="J10" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="H10" s="7">
-        <v>283</v>
-      </c>
-      <c r="I10" s="7">
-        <v>190624</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M10" s="7">
         <v>582</v>
@@ -2445,13 +2448,13 @@
         <v>389448</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2460,25 +2463,25 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
+        <v>377</v>
+      </c>
+      <c r="D11" s="7">
+        <v>251831</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" s="7">
         <v>381</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>253154</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H11" s="7">
-        <v>377</v>
-      </c>
-      <c r="I11" s="7">
-        <v>251831</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -2493,7 +2496,7 @@
         <v>758</v>
       </c>
       <c r="N11" s="7">
-        <v>504986</v>
+        <v>504985</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>40</v>
@@ -2507,7 +2510,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -2516,31 +2519,31 @@
         <v>3</v>
       </c>
       <c r="D12" s="7">
-        <v>1855</v>
+        <v>1975</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H12" s="7">
         <v>3</v>
       </c>
       <c r="I12" s="7">
-        <v>1975</v>
+        <v>1855</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M12" s="7">
         <v>6</v>
@@ -2549,13 +2552,13 @@
         <v>3831</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2564,34 +2567,34 @@
         <v>20</v>
       </c>
       <c r="C13" s="7">
+        <v>38</v>
+      </c>
+      <c r="D13" s="7">
+        <v>24799</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="H13" s="7">
         <v>54</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>35293</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G13" s="7" t="s">
+      <c r="J13" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="H13" s="7">
-        <v>38</v>
-      </c>
-      <c r="I13" s="7">
-        <v>24799</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M13" s="7">
         <v>92</v>
@@ -2600,13 +2603,13 @@
         <v>60092</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2615,34 +2618,34 @@
         <v>30</v>
       </c>
       <c r="C14" s="7">
+        <v>147</v>
+      </c>
+      <c r="D14" s="7">
+        <v>98755</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="H14" s="7">
         <v>155</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>104367</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="G14" s="7" t="s">
+      <c r="J14" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="H14" s="7">
-        <v>147</v>
-      </c>
-      <c r="I14" s="7">
-        <v>98755</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M14" s="7">
         <v>302</v>
@@ -2651,13 +2654,13 @@
         <v>203121</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2666,25 +2669,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>188</v>
+      </c>
+      <c r="D15" s="7">
+        <v>125529</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H15" s="7">
         <v>212</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>141515</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H15" s="7">
-        <v>188</v>
-      </c>
-      <c r="I15" s="7">
-        <v>125529</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>40</v>
@@ -2713,40 +2716,40 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>3</v>
+      </c>
+      <c r="D16" s="7">
+        <v>1954</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="H16" s="7">
         <v>4</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>2883</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G16" s="7" t="s">
+      <c r="J16" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="H16" s="7">
-        <v>3</v>
-      </c>
-      <c r="I16" s="7">
-        <v>1954</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M16" s="7">
         <v>7</v>
@@ -2755,10 +2758,10 @@
         <v>4837</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>105</v>
@@ -2770,10 +2773,10 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="D17" s="7">
-        <v>32826</v>
+        <v>37776</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>106</v>
@@ -2785,10 +2788,10 @@
         <v>108</v>
       </c>
       <c r="H17" s="7">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="I17" s="7">
-        <v>37776</v>
+        <v>32826</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>109</v>
@@ -2821,34 +2824,34 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>255</v>
+        <v>223</v>
       </c>
       <c r="D18" s="7">
-        <v>169162</v>
+        <v>152327</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>115</v>
       </c>
       <c r="F18" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="H18" s="7">
+        <v>255</v>
+      </c>
+      <c r="I18" s="7">
+        <v>169162</v>
+      </c>
+      <c r="J18" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="H18" s="7">
-        <v>223</v>
-      </c>
-      <c r="I18" s="7">
-        <v>152327</v>
-      </c>
-      <c r="J18" s="7" t="s">
+      <c r="K18" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="M18" s="7">
         <v>478</v>
@@ -2857,13 +2860,13 @@
         <v>321489</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2872,25 +2875,25 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
+        <v>283</v>
+      </c>
+      <c r="D19" s="7">
+        <v>192057</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H19" s="7">
         <v>308</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>204871</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H19" s="7">
-        <v>283</v>
-      </c>
-      <c r="I19" s="7">
-        <v>192057</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -2925,34 +2928,34 @@
         <v>10</v>
       </c>
       <c r="C20" s="7">
+        <v>23</v>
+      </c>
+      <c r="D20" s="7">
+        <v>14223</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="H20" s="7">
         <v>21</v>
       </c>
-      <c r="D20" s="7">
+      <c r="I20" s="7">
         <v>13953</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="G20" s="7" t="s">
+      <c r="J20" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="H20" s="7">
-        <v>23</v>
-      </c>
-      <c r="I20" s="7">
-        <v>14223</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="K20" s="7" t="s">
-        <v>128</v>
-      </c>
       <c r="L20" s="7" t="s">
-        <v>129</v>
+        <v>47</v>
       </c>
       <c r="M20" s="7">
         <v>44</v>
@@ -2961,13 +2964,13 @@
         <v>28176</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2976,34 +2979,34 @@
         <v>20</v>
       </c>
       <c r="C21" s="7">
+        <v>249</v>
+      </c>
+      <c r="D21" s="7">
+        <v>163746</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="H21" s="7">
         <v>262</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>173158</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="F21" s="7" t="s">
+      <c r="J21" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="G21" s="7" t="s">
+      <c r="K21" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="H21" s="7">
-        <v>249</v>
-      </c>
-      <c r="I21" s="7">
-        <v>163746</v>
-      </c>
-      <c r="J21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="M21" s="7">
         <v>511</v>
@@ -3012,13 +3015,13 @@
         <v>336904</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3027,34 +3030,34 @@
         <v>30</v>
       </c>
       <c r="C22" s="7">
+        <v>737</v>
+      </c>
+      <c r="D22" s="7">
+        <v>497172</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H22" s="7">
         <v>798</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>532368</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="F22" s="7" t="s">
+      <c r="J22" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="K22" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="H22" s="7">
-        <v>737</v>
-      </c>
-      <c r="I22" s="7">
-        <v>497172</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="M22" s="7">
         <v>1535</v>
@@ -3063,13 +3066,13 @@
         <v>1029540</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3078,25 +3081,25 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
+        <v>1009</v>
+      </c>
+      <c r="D23" s="7">
+        <v>675141</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H23" s="7">
         <v>1081</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>719479</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H23" s="7">
-        <v>1009</v>
-      </c>
-      <c r="I23" s="7">
-        <v>675141</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>40</v>
@@ -3125,7 +3128,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -3145,7 +3148,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7FB6DBF-C706-4546-B317-2662B7D62D6A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93358084-9C70-4643-8FA6-FE410FA1A8D6}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3162,7 +3165,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3263,34 +3266,34 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>13</v>
+      </c>
+      <c r="D4" s="7">
+        <v>9132</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="H4" s="7">
         <v>17</v>
       </c>
-      <c r="D4" s="7">
+      <c r="I4" s="7">
         <v>12373</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="F4" s="7" t="s">
+      <c r="J4" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="K4" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="H4" s="7">
-        <v>13</v>
-      </c>
-      <c r="I4" s="7">
-        <v>9132</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="M4" s="7">
         <v>30</v>
@@ -3299,13 +3302,13 @@
         <v>21505</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3314,34 +3317,34 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>103</v>
+      </c>
+      <c r="D5" s="7">
+        <v>66725</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="H5" s="7">
         <v>85</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>60085</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="F5" s="7" t="s">
+      <c r="J5" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="H5" s="7">
-        <v>103</v>
-      </c>
-      <c r="I5" s="7">
-        <v>66725</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="M5" s="7">
         <v>188</v>
@@ -3350,13 +3353,13 @@
         <v>126810</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3365,34 +3368,34 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
+        <v>103</v>
+      </c>
+      <c r="D6" s="7">
+        <v>70904</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="H6" s="7">
         <v>104</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>72864</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="F6" s="7" t="s">
+      <c r="J6" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="K6" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="H6" s="7">
-        <v>103</v>
-      </c>
-      <c r="I6" s="7">
-        <v>70904</v>
-      </c>
-      <c r="J6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="M6" s="7">
         <v>207</v>
@@ -3401,13 +3404,13 @@
         <v>143768</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3416,25 +3419,25 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
+        <v>219</v>
+      </c>
+      <c r="D7" s="7">
+        <v>146761</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="7">
         <v>206</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>145322</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H7" s="7">
-        <v>219</v>
-      </c>
-      <c r="I7" s="7">
-        <v>146761</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -3469,34 +3472,34 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
+        <v>6</v>
+      </c>
+      <c r="D8" s="7">
+        <v>4122</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="H8" s="7">
         <v>5</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>3299</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="F8" s="7" t="s">
+      <c r="J8" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="H8" s="7">
-        <v>6</v>
-      </c>
-      <c r="I8" s="7">
-        <v>4122</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>184</v>
-      </c>
       <c r="L8" s="7" t="s">
-        <v>185</v>
+        <v>99</v>
       </c>
       <c r="M8" s="7">
         <v>11</v>
@@ -3505,13 +3508,13 @@
         <v>7421</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>186</v>
+        <v>129</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3520,34 +3523,34 @@
         <v>20</v>
       </c>
       <c r="C9" s="7">
+        <v>81</v>
+      </c>
+      <c r="D9" s="7">
+        <v>56505</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="H9" s="7">
         <v>97</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>68537</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="J9" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="H9" s="7">
-        <v>81</v>
-      </c>
-      <c r="I9" s="7">
-        <v>56505</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="M9" s="7">
         <v>178</v>
@@ -3556,13 +3559,13 @@
         <v>125042</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>196</v>
+        <v>132</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3571,34 +3574,34 @@
         <v>30</v>
       </c>
       <c r="C10" s="7">
+        <v>252</v>
+      </c>
+      <c r="D10" s="7">
+        <v>174836</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="H10" s="7">
         <v>272</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>197155</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="J10" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="H10" s="7">
-        <v>252</v>
-      </c>
-      <c r="I10" s="7">
-        <v>174837</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="M10" s="7">
         <v>524</v>
@@ -3607,13 +3610,13 @@
         <v>371992</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3622,25 +3625,25 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
+        <v>339</v>
+      </c>
+      <c r="D11" s="7">
+        <v>235463</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" s="7">
         <v>374</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>268991</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H11" s="7">
-        <v>339</v>
-      </c>
-      <c r="I11" s="7">
-        <v>235464</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -3669,40 +3672,40 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="7">
+        <v>3</v>
+      </c>
+      <c r="D12" s="7">
+        <v>2139</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="H12" s="7">
         <v>5</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>3311</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="J12" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="H12" s="7">
-        <v>3</v>
-      </c>
-      <c r="I12" s="7">
-        <v>2139</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="M12" s="7">
         <v>8</v>
@@ -3711,13 +3714,13 @@
         <v>5450</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>187</v>
+        <v>209</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3726,34 +3729,34 @@
         <v>20</v>
       </c>
       <c r="C13" s="7">
+        <v>45</v>
+      </c>
+      <c r="D13" s="7">
+        <v>31121</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="H13" s="7">
         <v>54</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>37052</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="J13" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="H13" s="7">
-        <v>45</v>
-      </c>
-      <c r="I13" s="7">
-        <v>31121</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>220</v>
       </c>
       <c r="M13" s="7">
         <v>99</v>
@@ -3762,13 +3765,13 @@
         <v>68173</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>221</v>
+        <v>132</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3777,34 +3780,34 @@
         <v>30</v>
       </c>
       <c r="C14" s="7">
+        <v>174</v>
+      </c>
+      <c r="D14" s="7">
+        <v>123108</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="H14" s="7">
         <v>169</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>118208</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="J14" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="H14" s="7">
-        <v>174</v>
-      </c>
-      <c r="I14" s="7">
-        <v>123108</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>229</v>
       </c>
       <c r="M14" s="7">
         <v>343</v>
@@ -3813,13 +3816,13 @@
         <v>241316</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>230</v>
+        <v>145</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3828,25 +3831,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>222</v>
+      </c>
+      <c r="D15" s="7">
+        <v>156368</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H15" s="7">
         <v>228</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>158571</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H15" s="7">
-        <v>222</v>
-      </c>
-      <c r="I15" s="7">
-        <v>156368</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>40</v>
@@ -3875,40 +3878,40 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>3</v>
+      </c>
+      <c r="D16" s="7">
+        <v>2063</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="H16" s="7">
         <v>4</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>2677</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="H16" s="7">
-        <v>3</v>
-      </c>
-      <c r="I16" s="7">
-        <v>2063</v>
-      </c>
       <c r="J16" s="7" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>72</v>
+        <v>232</v>
       </c>
       <c r="M16" s="7">
         <v>7</v>
@@ -3917,13 +3920,13 @@
         <v>4740</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>240</v>
+        <v>130</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3932,34 +3935,34 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>38</v>
+      </c>
+      <c r="D17" s="7">
+        <v>27171</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="H17" s="7">
         <v>39</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>26882</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="H17" s="7">
-        <v>38</v>
-      </c>
-      <c r="I17" s="7">
-        <v>27171</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="M17" s="7">
         <v>77</v>
@@ -3968,13 +3971,13 @@
         <v>54053</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3983,34 +3986,34 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
+        <v>202</v>
+      </c>
+      <c r="D18" s="7">
+        <v>142103</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="H18" s="7">
         <v>221</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>149728</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="H18" s="7">
-        <v>202</v>
-      </c>
-      <c r="I18" s="7">
-        <v>142103</v>
-      </c>
       <c r="J18" s="7" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="M18" s="7">
         <v>423</v>
@@ -4019,13 +4022,13 @@
         <v>291831</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>257</v>
+        <v>95</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>117</v>
+        <v>251</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4034,25 +4037,25 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
+        <v>243</v>
+      </c>
+      <c r="D19" s="7">
+        <v>171337</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H19" s="7">
         <v>264</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>179287</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H19" s="7">
-        <v>243</v>
-      </c>
-      <c r="I19" s="7">
-        <v>171337</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -4087,34 +4090,34 @@
         <v>10</v>
       </c>
       <c r="C20" s="7">
+        <v>25</v>
+      </c>
+      <c r="D20" s="7">
+        <v>17456</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="H20" s="7">
         <v>31</v>
       </c>
-      <c r="D20" s="7">
+      <c r="I20" s="7">
         <v>21660</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="H20" s="7">
-        <v>25</v>
-      </c>
-      <c r="I20" s="7">
-        <v>17456</v>
-      </c>
       <c r="J20" s="7" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="M20" s="7">
         <v>56</v>
@@ -4123,13 +4126,13 @@
         <v>39116</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4138,34 +4141,34 @@
         <v>20</v>
       </c>
       <c r="C21" s="7">
+        <v>267</v>
+      </c>
+      <c r="D21" s="7">
+        <v>181522</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="H21" s="7">
         <v>275</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>192556</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="H21" s="7">
-        <v>267</v>
-      </c>
-      <c r="I21" s="7">
-        <v>181522</v>
-      </c>
       <c r="J21" s="7" t="s">
-        <v>270</v>
+        <v>218</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="M21" s="7">
         <v>542</v>
@@ -4174,13 +4177,13 @@
         <v>374078</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4189,34 +4192,34 @@
         <v>30</v>
       </c>
       <c r="C22" s="7">
+        <v>731</v>
+      </c>
+      <c r="D22" s="7">
+        <v>510951</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="H22" s="7">
         <v>766</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>537955</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="H22" s="7">
-        <v>731</v>
-      </c>
-      <c r="I22" s="7">
-        <v>510951</v>
-      </c>
       <c r="J22" s="7" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="M22" s="7">
         <v>1497</v>
@@ -4225,13 +4228,13 @@
         <v>1048906</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4240,25 +4243,25 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
+        <v>1023</v>
+      </c>
+      <c r="D23" s="7">
+        <v>709929</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H23" s="7">
         <v>1072</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>752171</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H23" s="7">
-        <v>1023</v>
-      </c>
-      <c r="I23" s="7">
-        <v>709929</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>40</v>
@@ -4287,7 +4290,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -4307,7 +4310,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1864C3A1-D016-45EE-80F4-C805287CB4AE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78E2FC7A-FE4A-4F90-B0C9-4BF679CB30F2}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4324,7 +4327,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4425,34 +4428,34 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>10</v>
+      </c>
+      <c r="D4" s="7">
+        <v>5829</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="H4" s="7">
         <v>7</v>
       </c>
-      <c r="D4" s="7">
+      <c r="I4" s="7">
         <v>3810</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="H4" s="7">
-        <v>10</v>
-      </c>
-      <c r="I4" s="7">
-        <v>5829</v>
-      </c>
       <c r="J4" s="7" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="M4" s="7">
         <v>17</v>
@@ -4461,13 +4464,13 @@
         <v>9640</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>127</v>
+        <v>284</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4476,34 +4479,34 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>98</v>
+      </c>
+      <c r="D5" s="7">
+        <v>60930</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="H5" s="7">
         <v>97</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>63396</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="H5" s="7">
-        <v>98</v>
-      </c>
-      <c r="I5" s="7">
-        <v>60930</v>
-      </c>
       <c r="J5" s="7" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="M5" s="7">
         <v>195</v>
@@ -4512,13 +4515,13 @@
         <v>124326</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4527,34 +4530,34 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
+        <v>99</v>
+      </c>
+      <c r="D6" s="7">
+        <v>62608</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="H6" s="7">
         <v>82</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>56425</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="H6" s="7">
-        <v>99</v>
-      </c>
-      <c r="I6" s="7">
-        <v>62608</v>
-      </c>
       <c r="J6" s="7" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="M6" s="7">
         <v>181</v>
@@ -4563,13 +4566,13 @@
         <v>119033</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4578,25 +4581,25 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
+        <v>207</v>
+      </c>
+      <c r="D7" s="7">
+        <v>129367</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="7">
         <v>186</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>123631</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H7" s="7">
-        <v>207</v>
-      </c>
-      <c r="I7" s="7">
-        <v>129367</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -4634,31 +4637,31 @@
         <v>5</v>
       </c>
       <c r="D8" s="7">
-        <v>3458</v>
+        <v>3490</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="H8" s="7">
         <v>5</v>
       </c>
       <c r="I8" s="7">
-        <v>3490</v>
+        <v>3458</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="M8" s="7">
         <v>10</v>
@@ -4667,13 +4670,13 @@
         <v>6949</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>49</v>
+        <v>310</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4682,34 +4685,34 @@
         <v>20</v>
       </c>
       <c r="C9" s="7">
+        <v>103</v>
+      </c>
+      <c r="D9" s="7">
+        <v>64553</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="H9" s="7">
         <v>139</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>96779</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="H9" s="7">
-        <v>103</v>
-      </c>
-      <c r="I9" s="7">
-        <v>64553</v>
-      </c>
       <c r="J9" s="7" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="M9" s="7">
         <v>242</v>
@@ -4718,13 +4721,13 @@
         <v>161332</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4733,34 +4736,34 @@
         <v>30</v>
       </c>
       <c r="C10" s="7">
+        <v>220</v>
+      </c>
+      <c r="D10" s="7">
+        <v>140167</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="H10" s="7">
         <v>235</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>157198</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="H10" s="7">
-        <v>220</v>
-      </c>
-      <c r="I10" s="7">
-        <v>140167</v>
-      </c>
       <c r="J10" s="7" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="M10" s="7">
         <v>455</v>
@@ -4769,13 +4772,13 @@
         <v>297364</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4784,25 +4787,25 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
+        <v>328</v>
+      </c>
+      <c r="D11" s="7">
+        <v>208210</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" s="7">
         <v>379</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>257435</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H11" s="7">
-        <v>328</v>
-      </c>
-      <c r="I11" s="7">
-        <v>208210</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -4831,7 +4834,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -4840,31 +4843,31 @@
         <v>4</v>
       </c>
       <c r="D12" s="7">
-        <v>2627</v>
+        <v>2302</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>237</v>
+        <v>330</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>314</v>
+        <v>331</v>
       </c>
       <c r="H12" s="7">
         <v>4</v>
       </c>
       <c r="I12" s="7">
-        <v>2302</v>
+        <v>2627</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>337</v>
+        <v>101</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="M12" s="7">
         <v>8</v>
@@ -4873,13 +4876,13 @@
         <v>4929</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>339</v>
+        <v>104</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4888,34 +4891,34 @@
         <v>20</v>
       </c>
       <c r="C13" s="7">
+        <v>71</v>
+      </c>
+      <c r="D13" s="7">
+        <v>49860</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="H13" s="7">
         <v>64</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>46127</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="H13" s="7">
-        <v>71</v>
-      </c>
-      <c r="I13" s="7">
-        <v>49860</v>
-      </c>
       <c r="J13" s="7" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>57</v>
+        <v>338</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="M13" s="7">
         <v>135</v>
@@ -4924,13 +4927,13 @@
         <v>95987</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4939,34 +4942,34 @@
         <v>30</v>
       </c>
       <c r="C14" s="7">
+        <v>197</v>
+      </c>
+      <c r="D14" s="7">
+        <v>136738</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="H14" s="7">
         <v>192</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>137972</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="H14" s="7">
-        <v>197</v>
-      </c>
-      <c r="I14" s="7">
-        <v>136738</v>
-      </c>
       <c r="J14" s="7" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="M14" s="7">
         <v>389</v>
@@ -4975,13 +4978,13 @@
         <v>274710</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4990,25 +4993,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>272</v>
+      </c>
+      <c r="D15" s="7">
+        <v>188899</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H15" s="7">
         <v>260</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>186726</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H15" s="7">
-        <v>272</v>
-      </c>
-      <c r="I15" s="7">
-        <v>188899</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>40</v>
@@ -5037,40 +5040,40 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>1</v>
+      </c>
+      <c r="D16" s="7">
+        <v>524</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="H16" s="7">
         <v>2</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>1477</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="H16" s="7">
-        <v>1</v>
-      </c>
-      <c r="I16" s="7">
-        <v>524</v>
-      </c>
       <c r="J16" s="7" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>211</v>
+        <v>353</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>359</v>
+        <v>280</v>
       </c>
       <c r="M16" s="7">
         <v>3</v>
@@ -5079,13 +5082,13 @@
         <v>2001</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>239</v>
+        <v>356</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>361</v>
+        <v>230</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5094,34 +5097,34 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>44</v>
+      </c>
+      <c r="D17" s="7">
+        <v>31171</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="H17" s="7">
         <v>35</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>26291</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="F17" s="7" t="s">
+      <c r="J17" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>362</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="H17" s="7">
-        <v>44</v>
-      </c>
-      <c r="I17" s="7">
-        <v>31171</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="M17" s="7">
         <v>79</v>
@@ -5130,13 +5133,13 @@
         <v>57462</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>365</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5145,34 +5148,34 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
+        <v>200</v>
+      </c>
+      <c r="D18" s="7">
+        <v>141082</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="H18" s="7">
         <v>193</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>142681</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="F18" s="7" t="s">
+      <c r="J18" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="K18" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="H18" s="7">
-        <v>200</v>
-      </c>
-      <c r="I18" s="7">
-        <v>141082</v>
-      </c>
-      <c r="J18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>371</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>373</v>
       </c>
       <c r="M18" s="7">
         <v>393</v>
@@ -5181,13 +5184,13 @@
         <v>283763</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>374</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5196,25 +5199,25 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
+        <v>245</v>
+      </c>
+      <c r="D19" s="7">
+        <v>172777</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H19" s="7">
         <v>230</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>170449</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H19" s="7">
-        <v>245</v>
-      </c>
-      <c r="I19" s="7">
-        <v>172777</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -5249,34 +5252,34 @@
         <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D20" s="7">
-        <v>11373</v>
+        <v>12145</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>359</v>
+        <v>375</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>376</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>261</v>
+        <v>377</v>
       </c>
       <c r="H20" s="7">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I20" s="7">
-        <v>12145</v>
+        <v>11373</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="M20" s="7">
         <v>38</v>
@@ -5285,13 +5288,13 @@
         <v>23518</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5300,34 +5303,34 @@
         <v>20</v>
       </c>
       <c r="C21" s="7">
+        <v>316</v>
+      </c>
+      <c r="D21" s="7">
+        <v>206513</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="H21" s="7">
         <v>335</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>232593</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>384</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="H21" s="7">
-        <v>316</v>
-      </c>
-      <c r="I21" s="7">
-        <v>206513</v>
-      </c>
       <c r="J21" s="7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>135</v>
+        <v>388</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="M21" s="7">
         <v>651</v>
@@ -5336,13 +5339,13 @@
         <v>439106</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5351,34 +5354,34 @@
         <v>30</v>
       </c>
       <c r="C22" s="7">
+        <v>716</v>
+      </c>
+      <c r="D22" s="7">
+        <v>480594</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="H22" s="7">
         <v>702</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>494276</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>392</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="H22" s="7">
-        <v>716</v>
-      </c>
-      <c r="I22" s="7">
-        <v>480594</v>
-      </c>
       <c r="J22" s="7" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="M22" s="7">
         <v>1418</v>
@@ -5387,13 +5390,13 @@
         <v>974870</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5402,25 +5405,25 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
+        <v>1052</v>
+      </c>
+      <c r="D23" s="7">
+        <v>699253</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H23" s="7">
         <v>1055</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>738242</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H23" s="7">
-        <v>1052</v>
-      </c>
-      <c r="I23" s="7">
-        <v>699253</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>40</v>
@@ -5449,7 +5452,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -5469,7 +5472,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35048CF5-D959-4C95-83FB-933E12356D0D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC769231-66B9-4588-8FCC-211E0225E104}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5486,7 +5489,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5587,49 +5590,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>2</v>
+      </c>
+      <c r="D4" s="7">
+        <v>877</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="H4" s="7">
         <v>3</v>
       </c>
-      <c r="D4" s="7">
-        <v>2134</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>401</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>402</v>
-      </c>
-      <c r="G4" s="7" t="s">
+      <c r="I4" s="7">
+        <v>2166</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="H4" s="7">
-        <v>2</v>
-      </c>
-      <c r="I4" s="7">
-        <v>880</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>359</v>
-      </c>
       <c r="K4" s="7" t="s">
-        <v>211</v>
+        <v>404</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="M4" s="7">
         <v>5</v>
       </c>
       <c r="N4" s="7">
-        <v>3014</v>
+        <v>3043</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>240</v>
+        <v>406</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>378</v>
+        <v>183</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5638,49 +5641,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>78</v>
+      </c>
+      <c r="D5" s="7">
+        <v>42855</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="H5" s="7">
         <v>79</v>
       </c>
-      <c r="D5" s="7">
-        <v>39888</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>408</v>
-      </c>
-      <c r="H5" s="7">
-        <v>78</v>
-      </c>
       <c r="I5" s="7">
-        <v>42527</v>
+        <v>42039</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>115</v>
+        <v>412</v>
       </c>
       <c r="M5" s="7">
         <v>157</v>
       </c>
       <c r="N5" s="7">
-        <v>82415</v>
+        <v>84893</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5689,49 +5692,49 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
+        <v>28</v>
+      </c>
+      <c r="D6" s="7">
+        <v>13334</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="H6" s="7">
         <v>34</v>
       </c>
-      <c r="D6" s="7">
-        <v>16481</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>414</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="H6" s="7">
-        <v>28</v>
-      </c>
       <c r="I6" s="7">
-        <v>13525</v>
+        <v>17239</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="M6" s="7">
         <v>62</v>
       </c>
       <c r="N6" s="7">
-        <v>30006</v>
+        <v>30574</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5740,25 +5743,25 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
+        <v>108</v>
+      </c>
+      <c r="D7" s="7">
+        <v>57066</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="7">
         <v>116</v>
       </c>
-      <c r="D7" s="7">
-        <v>58503</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H7" s="7">
-        <v>108</v>
-      </c>
       <c r="I7" s="7">
-        <v>56931</v>
+        <v>61444</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -5773,7 +5776,7 @@
         <v>224</v>
       </c>
       <c r="N7" s="7">
-        <v>115434</v>
+        <v>118510</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>40</v>
@@ -5793,49 +5796,49 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
+        <v>2</v>
+      </c>
+      <c r="D8" s="7">
+        <v>1642</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="H8" s="7">
         <v>0</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>0</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="H8" s="7">
-        <v>2</v>
-      </c>
-      <c r="I8" s="7">
-        <v>1684</v>
-      </c>
       <c r="J8" s="7" t="s">
-        <v>287</v>
+        <v>353</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>211</v>
+        <v>426</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>425</v>
+        <v>179</v>
       </c>
       <c r="M8" s="7">
         <v>2</v>
       </c>
       <c r="N8" s="7">
-        <v>1684</v>
+        <v>1642</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>426</v>
+        <v>182</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>211</v>
+        <v>353</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>73</v>
+        <v>427</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5844,49 +5847,49 @@
         <v>20</v>
       </c>
       <c r="C9" s="7">
+        <v>98</v>
+      </c>
+      <c r="D9" s="7">
+        <v>55573</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="H9" s="7">
         <v>103</v>
       </c>
-      <c r="D9" s="7">
-        <v>61046</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="H9" s="7">
-        <v>98</v>
-      </c>
       <c r="I9" s="7">
-        <v>55341</v>
+        <v>65100</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>194</v>
+        <v>432</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="M9" s="7">
         <v>201</v>
       </c>
       <c r="N9" s="7">
-        <v>116387</v>
+        <v>120673</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5895,49 +5898,49 @@
         <v>30</v>
       </c>
       <c r="C10" s="7">
+        <v>158</v>
+      </c>
+      <c r="D10" s="7">
+        <v>102084</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="H10" s="7">
         <v>173</v>
       </c>
-      <c r="D10" s="7">
-        <v>114253</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>435</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>436</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>437</v>
-      </c>
-      <c r="H10" s="7">
-        <v>158</v>
-      </c>
       <c r="I10" s="7">
-        <v>101739</v>
+        <v>117454</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="M10" s="7">
         <v>331</v>
       </c>
       <c r="N10" s="7">
-        <v>215992</v>
+        <v>219538</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>199</v>
+        <v>445</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5946,25 +5949,25 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
+        <v>258</v>
+      </c>
+      <c r="D11" s="7">
+        <v>159299</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" s="7">
         <v>276</v>
       </c>
-      <c r="D11" s="7">
-        <v>175299</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H11" s="7">
-        <v>258</v>
-      </c>
       <c r="I11" s="7">
-        <v>158765</v>
+        <v>182554</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -5979,7 +5982,7 @@
         <v>534</v>
       </c>
       <c r="N11" s="7">
-        <v>334063</v>
+        <v>341853</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>40</v>
@@ -5993,55 +5996,55 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="7">
+        <v>3</v>
+      </c>
+      <c r="D12" s="7">
+        <v>2503</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="H12" s="7">
         <v>0</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>0</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>443</v>
-      </c>
-      <c r="H12" s="7">
-        <v>3</v>
-      </c>
-      <c r="I12" s="7">
-        <v>2621</v>
-      </c>
       <c r="J12" s="7" t="s">
-        <v>233</v>
+        <v>353</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>444</v>
+        <v>426</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="M12" s="7">
         <v>3</v>
       </c>
       <c r="N12" s="7">
-        <v>2621</v>
+        <v>2503</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>424</v>
+        <v>404</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6050,49 +6053,49 @@
         <v>20</v>
       </c>
       <c r="C13" s="7">
+        <v>51</v>
+      </c>
+      <c r="D13" s="7">
+        <v>38944</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="H13" s="7">
         <v>75</v>
       </c>
-      <c r="D13" s="7">
-        <v>59419</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>448</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>449</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>450</v>
-      </c>
-      <c r="H13" s="7">
-        <v>51</v>
-      </c>
       <c r="I13" s="7">
-        <v>38040</v>
+        <v>63217</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="M13" s="7">
         <v>126</v>
       </c>
       <c r="N13" s="7">
-        <v>97459</v>
+        <v>102161</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6101,49 +6104,49 @@
         <v>30</v>
       </c>
       <c r="C14" s="7">
+        <v>179</v>
+      </c>
+      <c r="D14" s="7">
+        <v>131626</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="H14" s="7">
         <v>167</v>
       </c>
-      <c r="D14" s="7">
-        <v>141656</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>457</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>438</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>458</v>
-      </c>
-      <c r="H14" s="7">
-        <v>179</v>
-      </c>
       <c r="I14" s="7">
-        <v>135453</v>
+        <v>147672</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="M14" s="7">
         <v>346</v>
       </c>
       <c r="N14" s="7">
-        <v>277109</v>
+        <v>279298</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6152,25 +6155,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>233</v>
+      </c>
+      <c r="D15" s="7">
+        <v>173072</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H15" s="7">
         <v>242</v>
       </c>
-      <c r="D15" s="7">
-        <v>201075</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H15" s="7">
-        <v>233</v>
-      </c>
       <c r="I15" s="7">
-        <v>176113</v>
+        <v>210889</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>40</v>
@@ -6185,7 +6188,7 @@
         <v>475</v>
       </c>
       <c r="N15" s="7">
-        <v>377188</v>
+        <v>383962</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>40</v>
@@ -6199,7 +6202,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6208,46 +6211,46 @@
         <v>5</v>
       </c>
       <c r="D16" s="7">
-        <v>5365</v>
+        <v>3807</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>465</v>
+        <v>100</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>239</v>
+        <v>467</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="H16" s="7">
         <v>5</v>
       </c>
       <c r="I16" s="7">
-        <v>3762</v>
+        <v>5851</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>186</v>
+        <v>469</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="M16" s="7">
         <v>10</v>
       </c>
       <c r="N16" s="7">
-        <v>9127</v>
+        <v>9658</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>469</v>
+        <v>209</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6256,49 +6259,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>65</v>
+      </c>
+      <c r="D17" s="7">
+        <v>43973</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="H17" s="7">
         <v>58</v>
       </c>
-      <c r="D17" s="7">
-        <v>49076</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>471</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>472</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>473</v>
-      </c>
-      <c r="H17" s="7">
-        <v>65</v>
-      </c>
       <c r="I17" s="7">
-        <v>44805</v>
+        <v>51229</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="M17" s="7">
         <v>123</v>
       </c>
       <c r="N17" s="7">
-        <v>93881</v>
+        <v>95202</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6307,49 +6310,49 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
+        <v>265</v>
+      </c>
+      <c r="D18" s="7">
+        <v>222441</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="H18" s="7">
         <v>278</v>
       </c>
-      <c r="D18" s="7">
-        <v>234595</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>480</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>481</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>482</v>
-      </c>
-      <c r="H18" s="7">
-        <v>265</v>
-      </c>
       <c r="I18" s="7">
-        <v>206962</v>
+        <v>248007</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>121</v>
+        <v>485</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>483</v>
+        <v>148</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="M18" s="7">
         <v>543</v>
       </c>
       <c r="N18" s="7">
-        <v>441557</v>
+        <v>470448</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6358,25 +6361,25 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
+        <v>335</v>
+      </c>
+      <c r="D19" s="7">
+        <v>270221</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H19" s="7">
         <v>341</v>
       </c>
-      <c r="D19" s="7">
-        <v>289036</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H19" s="7">
-        <v>335</v>
-      </c>
       <c r="I19" s="7">
-        <v>255529</v>
+        <v>305087</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -6391,7 +6394,7 @@
         <v>676</v>
       </c>
       <c r="N19" s="7">
-        <v>544565</v>
+        <v>575308</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
@@ -6411,31 +6414,31 @@
         <v>10</v>
       </c>
       <c r="C20" s="7">
+        <v>12</v>
+      </c>
+      <c r="D20" s="7">
+        <v>8828</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="H20" s="7">
         <v>8</v>
       </c>
-      <c r="D20" s="7">
-        <v>7499</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>488</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>489</v>
-      </c>
-      <c r="H20" s="7">
-        <v>12</v>
-      </c>
       <c r="I20" s="7">
-        <v>8947</v>
+        <v>8017</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>491</v>
+        <v>182</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>492</v>
@@ -6444,10 +6447,10 @@
         <v>20</v>
       </c>
       <c r="N20" s="7">
-        <v>16446</v>
+        <v>16845</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>236</v>
+        <v>382</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>493</v>
@@ -6462,10 +6465,10 @@
         <v>20</v>
       </c>
       <c r="C21" s="7">
-        <v>315</v>
+        <v>292</v>
       </c>
       <c r="D21" s="7">
-        <v>209428</v>
+        <v>181345</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>495</v>
@@ -6477,10 +6480,10 @@
         <v>497</v>
       </c>
       <c r="H21" s="7">
-        <v>292</v>
+        <v>315</v>
       </c>
       <c r="I21" s="7">
-        <v>180713</v>
+        <v>221586</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>498</v>
@@ -6495,7 +6498,7 @@
         <v>607</v>
       </c>
       <c r="N21" s="7">
-        <v>390141</v>
+        <v>402930</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>501</v>
@@ -6504,7 +6507,7 @@
         <v>502</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>388</v>
+        <v>503</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6513,13 +6516,13 @@
         <v>30</v>
       </c>
       <c r="C22" s="7">
-        <v>652</v>
+        <v>630</v>
       </c>
       <c r="D22" s="7">
-        <v>506986</v>
+        <v>469486</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>503</v>
+        <v>141</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>504</v>
@@ -6528,10 +6531,10 @@
         <v>505</v>
       </c>
       <c r="H22" s="7">
-        <v>630</v>
+        <v>652</v>
       </c>
       <c r="I22" s="7">
-        <v>457678</v>
+        <v>530373</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>506</v>
@@ -6546,16 +6549,16 @@
         <v>1282</v>
       </c>
       <c r="N22" s="7">
-        <v>964664</v>
+        <v>999859</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>205</v>
+        <v>509</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6564,25 +6567,25 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
+        <v>934</v>
+      </c>
+      <c r="D23" s="7">
+        <v>659659</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H23" s="7">
         <v>975</v>
       </c>
-      <c r="D23" s="7">
-        <v>723913</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H23" s="7">
-        <v>934</v>
-      </c>
       <c r="I23" s="7">
-        <v>647338</v>
+        <v>759975</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>40</v>
@@ -6597,7 +6600,7 @@
         <v>1909</v>
       </c>
       <c r="N23" s="7">
-        <v>1371251</v>
+        <v>1419634</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>40</v>
@@ -6611,7 +6614,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
